--- a/capiq_data/in_process_data/IQ32307.xlsx
+++ b/capiq_data/in_process_data/IQ32307.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAAD6117-7AD5-4A88-A4BD-2CCA08512761}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1546003D-9A24-4424-8F74-D0676A14C219}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"1b780470-fb25-4272-9102-c54ef66b967b"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"609e8ee6-9c04-4140-b489-c40b83edd6a3"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$82</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$82</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$82</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$82</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$82</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$82</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$82</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$82</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$82</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$82</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$82</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$82</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$82</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$82</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$82</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$82</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$82</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$82</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$82</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$82</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$82</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$82</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$82</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$82</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$82</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$82</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,126 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ42001</t>
+  </si>
+  <si>
+    <t>FQ12002</t>
+  </si>
+  <si>
+    <t>FQ22002</t>
+  </si>
+  <si>
+    <t>FQ32002</t>
+  </si>
+  <si>
+    <t>FQ42002</t>
+  </si>
+  <si>
+    <t>FQ12003</t>
+  </si>
+  <si>
+    <t>FQ22003</t>
+  </si>
+  <si>
+    <t>FQ32003</t>
+  </si>
+  <si>
+    <t>FQ42003</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
+  </si>
+  <si>
+    <t>FQ42010</t>
+  </si>
+  <si>
+    <t>FQ12011</t>
+  </si>
+  <si>
+    <t>FQ22011</t>
+  </si>
+  <si>
+    <t>FQ32011</t>
   </si>
   <si>
     <t>FQ42011</t>
@@ -639,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,34 +853,34 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40573</v>
+        <v>36919</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>171.65100000000001</v>
+        <v>29.591999999999999</v>
       </c>
       <c r="D2">
-        <v>886.37599999999998</v>
+        <v>218.21799999999999</v>
       </c>
       <c r="E2">
-        <v>348.77</v>
+        <v>104.988</v>
       </c>
       <c r="F2">
-        <v>426.35899999999998</v>
+        <v>80.081999999999994</v>
       </c>
       <c r="G2">
-        <v>3226.95</v>
+        <v>930.88400000000001</v>
       </c>
       <c r="H2">
-        <v>4495.2460000000001</v>
+        <v>1016.902</v>
       </c>
       <c r="I2">
-        <v>286.13799999999998</v>
+        <v>72.301000000000002</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -772,78 +892,78 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>942.68200000000002</v>
+        <v>309.41699999999997</v>
       </c>
       <c r="O2">
-        <v>1313.7840000000001</v>
+        <v>609.79499999999996</v>
       </c>
       <c r="P2">
-        <v>23.388999999999999</v>
+        <v>300.96600000000001</v>
       </c>
       <c r="Q2">
-        <v>214.18700000000001</v>
+        <v>-20.608000000000001</v>
       </c>
       <c r="R2">
-        <v>40573</v>
+        <v>36919</v>
       </c>
       <c r="S2">
-        <v>6029</v>
+        <v>796</v>
       </c>
       <c r="T2">
-        <v>3181.462</v>
+        <v>407.10700000000003</v>
       </c>
       <c r="U2">
-        <v>665.36099999999999</v>
+        <v>674.27499999999998</v>
       </c>
       <c r="V2">
-        <v>434.673</v>
+        <v>215.535</v>
       </c>
       <c r="W2">
         <v>0</v>
       </c>
       <c r="X2">
-        <v>88.765000000000001</v>
+        <v>-196.90799999999999</v>
       </c>
       <c r="Y2">
-        <v>23.388999999999999</v>
+        <v>0.378</v>
       </c>
       <c r="Z2">
-        <v>-287.40100000000001</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>171.65100000000001</v>
+        <v>29.591999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40664</v>
+        <v>37010</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>135.21899999999999</v>
+        <v>26.65</v>
       </c>
       <c r="D3">
-        <v>962.03899999999999</v>
+        <v>240.93199999999999</v>
       </c>
       <c r="E3">
-        <v>343.202</v>
+        <v>86.629000000000005</v>
       </c>
       <c r="F3">
-        <v>484.50299999999999</v>
+        <v>94.22</v>
       </c>
       <c r="G3">
-        <v>3496.7629999999999</v>
+        <v>880.65300000000002</v>
       </c>
       <c r="H3">
-        <v>4736.7439999999997</v>
+        <v>1081.7840000000001</v>
       </c>
       <c r="I3">
-        <v>346.29500000000002</v>
+        <v>72.048000000000002</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -852,81 +972,81 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>-0.35199999999999998</v>
+        <v>-0.23</v>
       </c>
       <c r="N3">
-        <v>981.16600000000005</v>
+        <v>118.181</v>
       </c>
       <c r="O3">
-        <v>1288.9359999999999</v>
+        <v>618.48800000000006</v>
       </c>
       <c r="P3">
-        <v>22.957000000000001</v>
+        <v>300.73599999999999</v>
       </c>
       <c r="Q3">
-        <v>18.271999999999998</v>
+        <v>-46.975000000000001</v>
       </c>
       <c r="R3">
-        <v>40664</v>
+        <v>37010</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>3447.808</v>
+        <v>463.29599999999999</v>
       </c>
       <c r="U3">
-        <v>683.63300000000004</v>
+        <v>627.30100000000004</v>
       </c>
       <c r="V3">
-        <v>172.2</v>
+        <v>35.677999999999997</v>
       </c>
       <c r="W3">
         <v>0</v>
       </c>
       <c r="X3">
-        <v>98.578000000000003</v>
+        <v>16.248000000000001</v>
       </c>
       <c r="Y3">
-        <v>22.957000000000001</v>
+        <v>0.307</v>
       </c>
       <c r="Z3">
-        <v>-220.928</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>135.21899999999999</v>
+        <v>26.65</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40755</v>
+        <v>37101</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>151.57300000000001</v>
+        <v>32.926000000000002</v>
       </c>
       <c r="D4">
-        <v>1016.5170000000001</v>
+        <v>259.875</v>
       </c>
       <c r="E4">
-        <v>419.94400000000002</v>
+        <v>112.846</v>
       </c>
       <c r="F4">
-        <v>525.28399999999999</v>
+        <v>102.239</v>
       </c>
       <c r="G4">
-        <v>3317.5569999999998</v>
+        <v>965.73</v>
       </c>
       <c r="H4">
-        <v>4864.424</v>
+        <v>1189.258</v>
       </c>
       <c r="I4">
-        <v>297.81299999999999</v>
+        <v>88.736999999999995</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -938,78 +1058,78 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>960.29899999999998</v>
+        <v>160.15100000000001</v>
       </c>
       <c r="O4">
-        <v>1174.9549999999999</v>
+        <v>661.68700000000001</v>
       </c>
       <c r="P4">
-        <v>22.492999999999999</v>
+        <v>305.69099999999997</v>
       </c>
       <c r="Q4">
-        <v>-151.01900000000001</v>
+        <v>53.777999999999999</v>
       </c>
       <c r="R4">
-        <v>40755</v>
+        <v>37101</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>3689.4690000000001</v>
+        <v>527.57100000000003</v>
       </c>
       <c r="U4">
-        <v>532.61400000000003</v>
+        <v>681.07799999999997</v>
       </c>
       <c r="V4">
-        <v>82.021000000000001</v>
+        <v>58.116</v>
       </c>
       <c r="W4">
         <v>0</v>
       </c>
       <c r="X4">
-        <v>40.177999999999997</v>
+        <v>19.989999999999998</v>
       </c>
       <c r="Y4">
-        <v>22.492999999999999</v>
+        <v>3.6720000000000002</v>
       </c>
       <c r="Z4">
-        <v>100.496</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>151.57300000000001</v>
+        <v>32.926000000000002</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40846</v>
+        <v>37192</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>178.273</v>
+        <v>41.314999999999998</v>
       </c>
       <c r="D5">
-        <v>1066.18</v>
+        <v>364.976</v>
       </c>
       <c r="E5">
-        <v>371.26100000000002</v>
+        <v>117.664</v>
       </c>
       <c r="F5">
-        <v>556.71699999999998</v>
+        <v>133.46799999999999</v>
       </c>
       <c r="G5">
-        <v>3500.0709999999999</v>
+        <v>1006.937</v>
       </c>
       <c r="H5">
-        <v>5089.0429999999997</v>
+        <v>1247.3499999999999</v>
       </c>
       <c r="I5">
-        <v>307.94299999999998</v>
+        <v>108.953</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -1021,78 +1141,78 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>886.68399999999997</v>
+        <v>329.77300000000002</v>
       </c>
       <c r="O5">
-        <v>1115.5930000000001</v>
+        <v>636.71400000000006</v>
       </c>
       <c r="P5">
-        <v>21.949000000000002</v>
+        <v>310.95499999999998</v>
       </c>
       <c r="Q5">
-        <v>34.201999999999998</v>
+        <v>-282.58699999999999</v>
       </c>
       <c r="R5">
-        <v>40846</v>
+        <v>37192</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>3973.45</v>
+        <v>610.63599999999997</v>
       </c>
       <c r="U5">
-        <v>566.81600000000003</v>
+        <v>398.49099999999999</v>
       </c>
       <c r="V5">
-        <v>244.417</v>
+        <v>19.463000000000001</v>
       </c>
       <c r="W5">
         <v>0</v>
       </c>
       <c r="X5">
-        <v>78.930000000000007</v>
+        <v>15.007</v>
       </c>
       <c r="Y5">
-        <v>21.949000000000002</v>
+        <v>6.9409999999999998</v>
       </c>
       <c r="Z5">
-        <v>-250.11</v>
+        <v>-316.81200000000001</v>
       </c>
       <c r="AA5">
-        <v>178.273</v>
+        <v>41.314999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40937</v>
+        <v>37283</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>116.02500000000001</v>
+        <v>76.033000000000001</v>
       </c>
       <c r="D6">
-        <v>953.19399999999996</v>
+        <v>503.68799999999999</v>
       </c>
       <c r="E6">
-        <v>336.14299999999997</v>
+        <v>147.34800000000001</v>
       </c>
       <c r="F6">
-        <v>490.01299999999998</v>
+        <v>189.31100000000001</v>
       </c>
       <c r="G6">
-        <v>3905.3580000000002</v>
+        <v>1234.1089999999999</v>
       </c>
       <c r="H6">
-        <v>5552.9279999999999</v>
+        <v>1503.174</v>
       </c>
       <c r="I6">
-        <v>335.072</v>
+        <v>214.01900000000001</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -1104,78 +1224,78 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>929.95799999999997</v>
+        <v>433.49400000000003</v>
       </c>
       <c r="O6">
-        <v>1407.204</v>
+        <v>739.35500000000002</v>
       </c>
       <c r="P6">
-        <v>21.439</v>
+        <v>309.75700000000001</v>
       </c>
       <c r="Q6">
-        <v>101.06</v>
+        <v>-65.491</v>
       </c>
       <c r="R6">
-        <v>40937</v>
+        <v>37283</v>
       </c>
       <c r="S6">
-        <v>7133</v>
+        <v>1123</v>
       </c>
       <c r="T6">
-        <v>4145.7240000000002</v>
+        <v>763.81899999999996</v>
       </c>
       <c r="U6">
-        <v>667.87599999999998</v>
+        <v>333</v>
       </c>
       <c r="V6">
-        <v>410.51799999999997</v>
+        <v>47.548999999999999</v>
       </c>
       <c r="W6">
         <v>0</v>
       </c>
       <c r="X6">
-        <v>19.036999999999999</v>
+        <v>47.845999999999997</v>
       </c>
       <c r="Y6">
-        <v>21.439</v>
+        <v>5.8609999999999998</v>
       </c>
       <c r="Z6">
-        <v>-283.613</v>
+        <v>-140.785</v>
       </c>
       <c r="AA6">
-        <v>116.02500000000001</v>
+        <v>76.033000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>41028</v>
+        <v>37374</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>60.436999999999998</v>
+        <v>83.245000000000005</v>
       </c>
       <c r="D7">
-        <v>924.87699999999995</v>
+        <v>582.90499999999997</v>
       </c>
       <c r="E7">
-        <v>411.15499999999997</v>
+        <v>151.429</v>
       </c>
       <c r="F7">
-        <v>463.36399999999998</v>
+        <v>207.16499999999999</v>
       </c>
       <c r="G7">
-        <v>4032.116</v>
+        <v>1319.0640000000001</v>
       </c>
       <c r="H7">
-        <v>5708.1670000000004</v>
+        <v>1599.7170000000001</v>
       </c>
       <c r="I7">
-        <v>395.57799999999997</v>
+        <v>190.36</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -1184,81 +1304,81 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>-0.51500000000000001</v>
+        <v>-0.87</v>
       </c>
       <c r="N7">
-        <v>947.404</v>
+        <v>426.12900000000002</v>
       </c>
       <c r="O7">
-        <v>1420.739</v>
+        <v>731.06600000000003</v>
       </c>
       <c r="P7">
-        <v>20.83</v>
+        <v>308.88099999999997</v>
       </c>
       <c r="Q7">
-        <v>-298.74099999999999</v>
+        <v>-25.849</v>
       </c>
       <c r="R7">
-        <v>41028</v>
+        <v>37374</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>4287.4279999999999</v>
+        <v>868.65099999999995</v>
       </c>
       <c r="U7">
-        <v>369.13499999999999</v>
+        <v>307.15100000000001</v>
       </c>
       <c r="V7">
-        <v>-9.2080000000000002</v>
+        <v>48.774999999999999</v>
       </c>
       <c r="W7">
         <v>0</v>
       </c>
       <c r="X7">
-        <v>45.521000000000001</v>
+        <v>14.111000000000001</v>
       </c>
       <c r="Y7">
-        <v>20.83</v>
+        <v>4.9370000000000003</v>
       </c>
       <c r="Z7">
-        <v>-306.34699999999998</v>
+        <v>-63.563000000000002</v>
       </c>
       <c r="AA7">
-        <v>60.436999999999998</v>
+        <v>83.245000000000005</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41119</v>
+        <v>37465</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>119.04600000000001</v>
+        <v>5.2539999999999996</v>
       </c>
       <c r="D8">
-        <v>1044.27</v>
+        <v>427.28500000000003</v>
       </c>
       <c r="E8">
-        <v>445.31200000000001</v>
+        <v>133.03800000000001</v>
       </c>
       <c r="F8">
-        <v>540.71900000000005</v>
+        <v>99.302000000000007</v>
       </c>
       <c r="G8">
-        <v>4213.8509999999997</v>
+        <v>1324.48</v>
       </c>
       <c r="H8">
-        <v>5891.8810000000003</v>
+        <v>1615.154</v>
       </c>
       <c r="I8">
-        <v>417.25</v>
+        <v>165.39500000000001</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1270,78 +1390,78 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1021.96</v>
+        <v>423.69600000000003</v>
       </c>
       <c r="O8">
-        <v>1438.2159999999999</v>
+        <v>731.62199999999996</v>
       </c>
       <c r="P8">
-        <v>20.236999999999998</v>
+        <v>313.53300000000002</v>
       </c>
       <c r="Q8">
-        <v>130.483</v>
+        <v>-60.335000000000001</v>
       </c>
       <c r="R8">
-        <v>41119</v>
+        <v>37465</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>4453.665</v>
+        <v>883.53200000000004</v>
       </c>
       <c r="U8">
-        <v>499.61799999999999</v>
+        <v>246.816</v>
       </c>
       <c r="V8">
-        <v>200.886</v>
+        <v>0.66800000000000004</v>
       </c>
       <c r="W8">
         <v>0</v>
       </c>
       <c r="X8">
-        <v>14.3</v>
+        <v>9.8460000000000001</v>
       </c>
       <c r="Y8">
-        <v>20.236999999999998</v>
+        <v>7.9260000000000002</v>
       </c>
       <c r="Z8">
-        <v>-22.460999999999999</v>
+        <v>-53.997</v>
       </c>
       <c r="AA8">
-        <v>119.04600000000001</v>
+        <v>5.2539999999999996</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41210</v>
+        <v>37556</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>209.08</v>
+        <v>-48.636000000000003</v>
       </c>
       <c r="D9">
-        <v>1204.1099999999999</v>
+        <v>430.30399999999997</v>
       </c>
       <c r="E9">
-        <v>444.94400000000002</v>
+        <v>149.86099999999999</v>
       </c>
       <c r="F9">
-        <v>636.65800000000002</v>
+        <v>102.03400000000001</v>
       </c>
       <c r="G9">
-        <v>4424.8270000000002</v>
+        <v>1346.296</v>
       </c>
       <c r="H9">
-        <v>6075.1440000000002</v>
+        <v>1629.6969999999999</v>
       </c>
       <c r="I9">
-        <v>390.26499999999999</v>
+        <v>170.589</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1353,78 +1473,78 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>991.35900000000004</v>
+        <v>444.08</v>
       </c>
       <c r="O9">
-        <v>1352.298</v>
+        <v>750.42</v>
       </c>
       <c r="P9">
-        <v>19.626999999999999</v>
+        <v>311.92</v>
       </c>
       <c r="Q9">
-        <v>25.77</v>
+        <v>75.718999999999994</v>
       </c>
       <c r="R9">
-        <v>41210</v>
+        <v>37556</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>4722.8459999999995</v>
+        <v>879.27700000000004</v>
       </c>
       <c r="U9">
-        <v>525.38800000000003</v>
+        <v>322.53500000000003</v>
       </c>
       <c r="V9">
-        <v>181.48500000000001</v>
+        <v>91.263999999999996</v>
       </c>
       <c r="W9">
         <v>0</v>
       </c>
       <c r="X9">
-        <v>27.084</v>
+        <v>2.7130000000000001</v>
       </c>
       <c r="Y9">
-        <v>19.626999999999999</v>
+        <v>6.34</v>
       </c>
       <c r="Z9">
-        <v>-138.33199999999999</v>
+        <v>-10.198</v>
       </c>
       <c r="AA9">
-        <v>209.08</v>
+        <v>-48.636000000000003</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41301</v>
+        <v>37647</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>173.97300000000001</v>
+        <v>50.936</v>
       </c>
       <c r="D10">
-        <v>1106.902</v>
+        <v>468.95299999999997</v>
       </c>
       <c r="E10">
-        <v>454.25200000000001</v>
+        <v>154.501</v>
       </c>
       <c r="F10">
-        <v>585.60199999999998</v>
+        <v>167.511</v>
       </c>
       <c r="G10">
-        <v>4775.2579999999998</v>
+        <v>1351.6020000000001</v>
       </c>
       <c r="H10">
-        <v>6412.2449999999999</v>
+        <v>1617.0150000000001</v>
       </c>
       <c r="I10">
-        <v>356.428</v>
+        <v>141.12899999999999</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1436,78 +1556,78 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>976.22299999999996</v>
+        <v>379.44799999999998</v>
       </c>
       <c r="O10">
-        <v>1584.5419999999999</v>
+        <v>684.32799999999997</v>
       </c>
       <c r="P10">
-        <v>18.998000000000001</v>
+        <v>310.55599999999998</v>
       </c>
       <c r="Q10">
-        <v>207.398</v>
+        <v>24.459</v>
       </c>
       <c r="R10">
-        <v>41301</v>
+        <v>37647</v>
       </c>
       <c r="S10">
-        <v>7974</v>
+        <v>1513</v>
       </c>
       <c r="T10">
-        <v>4827.7030000000004</v>
+        <v>932.68700000000001</v>
       </c>
       <c r="U10">
-        <v>732.78599999999994</v>
+        <v>346.99400000000003</v>
       </c>
       <c r="V10">
-        <v>451.00900000000001</v>
+        <v>124.325</v>
       </c>
       <c r="W10">
-        <v>-46.866</v>
+        <v>0</v>
       </c>
       <c r="X10">
-        <v>-102.175</v>
+        <v>-0.38400000000000001</v>
       </c>
       <c r="Y10">
-        <v>18.998000000000001</v>
+        <v>4.88</v>
       </c>
       <c r="Z10">
-        <v>-93.894999999999996</v>
+        <v>-89.542000000000002</v>
       </c>
       <c r="AA10">
-        <v>173.97300000000001</v>
+        <v>50.936</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41392</v>
+        <v>37738</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>77.891000000000005</v>
+        <v>19.747</v>
       </c>
       <c r="D11">
-        <v>954.73900000000003</v>
+        <v>404.983</v>
       </c>
       <c r="E11">
-        <v>346.99799999999999</v>
+        <v>155.751</v>
       </c>
       <c r="F11">
-        <v>518.56799999999998</v>
+        <v>126.568</v>
       </c>
       <c r="G11">
-        <v>4606.616</v>
+        <v>1400.789</v>
       </c>
       <c r="H11">
-        <v>6279.527</v>
+        <v>1687.5329999999999</v>
       </c>
       <c r="I11">
-        <v>328.25900000000001</v>
+        <v>234.43700000000001</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1516,81 +1636,81 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>-0.57599999999999996</v>
+        <v>-1.4139999999999999</v>
       </c>
       <c r="N11">
-        <v>925.577</v>
+        <v>416.50900000000001</v>
       </c>
       <c r="O11">
-        <v>1454.5909999999999</v>
+        <v>726.70299999999997</v>
       </c>
       <c r="P11">
-        <v>18.332999999999998</v>
+        <v>310.39699999999999</v>
       </c>
       <c r="Q11">
-        <v>-171.363</v>
+        <v>-68.197999999999993</v>
       </c>
       <c r="R11">
-        <v>41392</v>
+        <v>37738</v>
       </c>
       <c r="S11">
-        <v>0</v>
+        <v>1596</v>
       </c>
       <c r="T11">
-        <v>4824.9359999999997</v>
+        <v>960.83</v>
       </c>
       <c r="U11">
-        <v>561.423</v>
+        <v>278.79599999999999</v>
       </c>
       <c r="V11">
-        <v>175.65</v>
+        <v>40.427999999999997</v>
       </c>
       <c r="W11">
-        <v>-46.267000000000003</v>
+        <v>0</v>
       </c>
       <c r="X11">
-        <v>-116.227</v>
+        <v>6.4320000000000004</v>
       </c>
       <c r="Y11">
-        <v>18.332999999999998</v>
+        <v>4.194</v>
       </c>
       <c r="Z11">
-        <v>-163.66900000000001</v>
+        <v>-89.465999999999994</v>
       </c>
       <c r="AA11">
-        <v>77.891000000000005</v>
+        <v>19.747</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41483</v>
+        <v>37829</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>96.447999999999993</v>
+        <v>24.15</v>
       </c>
       <c r="D12">
-        <v>977.23800000000006</v>
+        <v>459.774</v>
       </c>
       <c r="E12">
-        <v>418.12299999999999</v>
+        <v>190.21299999999999</v>
       </c>
       <c r="F12">
-        <v>545.53800000000001</v>
+        <v>129.97399999999999</v>
       </c>
       <c r="G12">
-        <v>3922.6080000000002</v>
+        <v>1446.0429999999999</v>
       </c>
       <c r="H12">
-        <v>5569.5919999999996</v>
+        <v>1780.1130000000001</v>
       </c>
       <c r="I12">
-        <v>310.27100000000002</v>
+        <v>282.39699999999999</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1602,75 +1722,75 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>935.79100000000005</v>
+        <v>476.238</v>
       </c>
       <c r="O12">
-        <v>1397.4190000000001</v>
+        <v>784.26</v>
       </c>
       <c r="P12">
-        <v>17.684999999999999</v>
+        <v>310.05</v>
       </c>
       <c r="Q12">
-        <v>29.898</v>
+        <v>-4.4989999999999997</v>
       </c>
       <c r="R12">
-        <v>41483</v>
+        <v>37829</v>
       </c>
       <c r="S12">
-        <v>0</v>
+        <v>1670</v>
       </c>
       <c r="T12">
-        <v>4172.1729999999998</v>
+        <v>995.85299999999995</v>
       </c>
       <c r="U12">
-        <v>591.32100000000003</v>
+        <v>274.29700000000003</v>
       </c>
       <c r="V12">
-        <v>96.468999999999994</v>
+        <v>18.814</v>
       </c>
       <c r="W12">
-        <v>-43.343000000000004</v>
+        <v>0</v>
       </c>
       <c r="X12">
-        <v>-778.38900000000001</v>
+        <v>10.648</v>
       </c>
       <c r="Y12">
-        <v>17.684999999999999</v>
+        <v>3.5219999999999998</v>
       </c>
       <c r="Z12">
-        <v>796.80399999999997</v>
+        <v>32.31</v>
       </c>
       <c r="AA12">
-        <v>96.447999999999993</v>
+        <v>24.15</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41574</v>
+        <v>37920</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>118.73399999999999</v>
+        <v>6.3559999999999999</v>
       </c>
       <c r="D13">
-        <v>1053.9670000000001</v>
+        <v>486.06900000000002</v>
       </c>
       <c r="E13">
-        <v>447.63099999999997</v>
+        <v>157.839</v>
       </c>
       <c r="F13">
-        <v>584.41499999999996</v>
+        <v>134.131</v>
       </c>
       <c r="G13">
-        <v>4049.8409999999999</v>
+        <v>1058.104</v>
       </c>
       <c r="H13">
-        <v>5711.3729999999996</v>
+        <v>1458.78</v>
       </c>
       <c r="I13">
-        <v>333.28300000000002</v>
+        <v>242.309</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -1685,78 +1805,78 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>985.92700000000002</v>
+        <v>435.50200000000001</v>
       </c>
       <c r="O13">
-        <v>1390.7260000000001</v>
+        <v>449.09800000000001</v>
       </c>
       <c r="P13">
-        <v>17.015000000000001</v>
+        <v>8.4220000000000006</v>
       </c>
       <c r="Q13">
-        <v>-29.236999999999998</v>
+        <v>-42.484000000000002</v>
       </c>
       <c r="R13">
-        <v>41574</v>
+        <v>37920</v>
       </c>
       <c r="S13">
-        <v>0</v>
+        <v>1796</v>
       </c>
       <c r="T13">
-        <v>4320.6469999999999</v>
+        <v>1009.682</v>
       </c>
       <c r="U13">
-        <v>562.08399999999995</v>
+        <v>231.81299999999999</v>
       </c>
       <c r="V13">
-        <v>162.315</v>
+        <v>-8.6150000000000002</v>
       </c>
       <c r="W13">
-        <v>-43.396999999999998</v>
+        <v>0</v>
       </c>
       <c r="X13">
-        <v>-4.1790000000000003</v>
+        <v>-291.82499999999999</v>
       </c>
       <c r="Y13">
-        <v>17.015000000000001</v>
+        <v>2.6339999999999999</v>
       </c>
       <c r="Z13">
-        <v>-131.06899999999999</v>
+        <v>352.64400000000001</v>
       </c>
       <c r="AA13">
-        <v>118.73399999999999</v>
+        <v>6.3559999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41665</v>
+        <v>38011</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>146.917</v>
+        <v>24.166</v>
       </c>
       <c r="D14">
-        <v>1144.2180000000001</v>
+        <v>472.11900000000003</v>
       </c>
       <c r="E14">
-        <v>426.35700000000003</v>
+        <v>196.631</v>
       </c>
       <c r="F14">
-        <v>619.24199999999996</v>
+        <v>138.20500000000001</v>
       </c>
       <c r="G14">
-        <v>5624.7110000000002</v>
+        <v>1052.712</v>
       </c>
       <c r="H14">
-        <v>7250.8940000000002</v>
+        <v>1399.3440000000001</v>
       </c>
       <c r="I14">
-        <v>324.39100000000002</v>
+        <v>185.34200000000001</v>
       </c>
       <c r="J14">
-        <v>1356.375</v>
+        <v>0</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1768,78 +1888,78 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>945.49599999999998</v>
+        <v>334.11200000000002</v>
       </c>
       <c r="O14">
-        <v>2794.4960000000001</v>
+        <v>348.15899999999999</v>
       </c>
       <c r="P14">
-        <v>1373.875</v>
+        <v>4.8710000000000004</v>
       </c>
       <c r="Q14">
-        <v>589.50300000000004</v>
+        <v>-17.390999999999998</v>
       </c>
       <c r="R14">
-        <v>41665</v>
+        <v>38011</v>
       </c>
       <c r="S14">
-        <v>8808</v>
+        <v>1825</v>
       </c>
       <c r="T14">
-        <v>4456.3980000000001</v>
+        <v>1051.1849999999999</v>
       </c>
       <c r="U14">
-        <v>1151.587</v>
+        <v>214.422</v>
       </c>
       <c r="V14">
-        <v>400.71199999999999</v>
+        <v>-0.94899999999999995</v>
       </c>
       <c r="W14">
-        <v>-48.329000000000001</v>
+        <v>0</v>
       </c>
       <c r="X14">
-        <v>1288.3869999999999</v>
+        <v>4.4539999999999997</v>
       </c>
       <c r="Y14">
-        <v>17.5</v>
+        <v>0.85599999999999998</v>
       </c>
       <c r="Z14">
-        <v>-1055.5029999999999</v>
+        <v>-8.5399999999999991</v>
       </c>
       <c r="AA14">
-        <v>146.917</v>
+        <v>24.166</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41756</v>
+        <v>38102</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>137</v>
+        <v>21.349</v>
       </c>
       <c r="D15">
-        <v>1103</v>
+        <v>471.90499999999997</v>
       </c>
       <c r="E15">
-        <v>396.43799999999999</v>
+        <v>205.30799999999999</v>
       </c>
       <c r="F15">
-        <v>604</v>
+        <v>148.83600000000001</v>
       </c>
       <c r="G15">
-        <v>5273.7979999999998</v>
+        <v>1116.9570000000001</v>
       </c>
       <c r="H15">
-        <v>6864.6629999999996</v>
+        <v>1458.19</v>
       </c>
       <c r="I15">
-        <v>309.00799999999998</v>
+        <v>214.61799999999999</v>
       </c>
       <c r="J15">
-        <v>1363.2760000000001</v>
+        <v>0</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1848,81 +1968,81 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>-1</v>
+        <v>-1.4830000000000001</v>
       </c>
       <c r="N15">
-        <v>897.94500000000005</v>
+        <v>358.55099999999999</v>
       </c>
       <c r="O15">
-        <v>2697.6779999999999</v>
+        <v>372.08699999999999</v>
       </c>
       <c r="P15">
-        <v>1379.9590000000001</v>
+        <v>3.3879999999999999</v>
       </c>
       <c r="Q15">
-        <v>-643</v>
+        <v>-17.747</v>
       </c>
       <c r="R15">
-        <v>41756</v>
+        <v>38102</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15">
-        <v>4166.9849999999997</v>
+        <v>1086.1030000000001</v>
       </c>
       <c r="U15">
-        <v>509.16500000000002</v>
+        <v>196.67500000000001</v>
       </c>
       <c r="V15">
-        <v>151</v>
+        <v>61.485999999999997</v>
       </c>
       <c r="W15">
-        <v>-47</v>
+        <v>0</v>
       </c>
       <c r="X15">
-        <v>-464</v>
+        <v>13.698</v>
       </c>
       <c r="Y15">
-        <v>16.683</v>
+        <v>0.34499999999999997</v>
       </c>
       <c r="Z15">
-        <v>-322</v>
+        <v>-74.331999999999994</v>
       </c>
       <c r="AA15">
-        <v>137</v>
+        <v>21.349</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41847</v>
+        <v>38193</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>128</v>
+        <v>5.1189999999999998</v>
       </c>
       <c r="D16">
-        <v>1103</v>
+        <v>456.06099999999998</v>
       </c>
       <c r="E16">
-        <v>469.625</v>
+        <v>246.39599999999999</v>
       </c>
       <c r="F16">
-        <v>619</v>
+        <v>140.09299999999999</v>
       </c>
       <c r="G16">
-        <v>5377.5860000000002</v>
+        <v>1146.2940000000001</v>
       </c>
       <c r="H16">
-        <v>6933.7190000000001</v>
+        <v>1480.8889999999999</v>
       </c>
       <c r="I16">
-        <v>261.62700000000001</v>
+        <v>223.20099999999999</v>
       </c>
       <c r="J16">
-        <v>1370.249</v>
+        <v>0</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1934,78 +2054,78 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>868.72900000000004</v>
+        <v>374.036</v>
       </c>
       <c r="O16">
-        <v>2628.933</v>
+        <v>385.72699999999998</v>
       </c>
       <c r="P16">
-        <v>1386.0909999999999</v>
+        <v>2.0379999999999998</v>
       </c>
       <c r="Q16">
-        <v>6</v>
+        <v>-16.096</v>
       </c>
       <c r="R16">
-        <v>41847</v>
+        <v>38193</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16">
-        <v>4304.7860000000001</v>
+        <v>1095.162</v>
       </c>
       <c r="U16">
-        <v>515.09199999999998</v>
+        <v>180.57900000000001</v>
       </c>
       <c r="V16">
-        <v>96</v>
+        <v>-28.890999999999998</v>
       </c>
       <c r="W16">
-        <v>-47</v>
+        <v>0</v>
       </c>
       <c r="X16">
-        <v>-26</v>
+        <v>3.2559999999999998</v>
       </c>
       <c r="Y16">
-        <v>15.842000000000001</v>
+        <v>0</v>
       </c>
       <c r="Z16">
-        <v>-41</v>
+        <v>26.167000000000002</v>
       </c>
       <c r="AA16">
-        <v>128</v>
+        <v>5.1189999999999998</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41938</v>
+        <v>38284</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>172</v>
+        <v>25.879000000000001</v>
       </c>
       <c r="D17">
-        <v>1225</v>
+        <v>515.59100000000001</v>
       </c>
       <c r="E17">
-        <v>563.4</v>
+        <v>307.40899999999999</v>
       </c>
       <c r="F17">
-        <v>676</v>
+        <v>166.74199999999999</v>
       </c>
       <c r="G17">
-        <v>5341.1090000000004</v>
+        <v>1211.1510000000001</v>
       </c>
       <c r="H17">
-        <v>6885.8689999999997</v>
+        <v>1539.6559999999999</v>
       </c>
       <c r="I17">
-        <v>328.09699999999998</v>
+        <v>262.95999999999998</v>
       </c>
       <c r="J17">
-        <v>1377.259</v>
+        <v>0</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -2017,78 +2137,78 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>933.90700000000004</v>
+        <v>415.15300000000002</v>
       </c>
       <c r="O17">
-        <v>2681.2759999999998</v>
+        <v>431.245</v>
       </c>
       <c r="P17">
-        <v>1392.2360000000001</v>
+        <v>1.36</v>
       </c>
       <c r="Q17">
-        <v>-120</v>
+        <v>-23.891999999999999</v>
       </c>
       <c r="R17">
-        <v>41938</v>
+        <v>38284</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
       <c r="T17">
-        <v>4204.5929999999998</v>
+        <v>1108.4110000000001</v>
       </c>
       <c r="U17">
-        <v>394.68299999999999</v>
+        <v>156.68700000000001</v>
       </c>
       <c r="V17">
-        <v>216</v>
+        <v>0.434</v>
       </c>
       <c r="W17">
-        <v>-46</v>
+        <v>0</v>
       </c>
       <c r="X17">
-        <v>-321</v>
+        <v>-14.286</v>
       </c>
       <c r="Y17">
-        <v>14.977</v>
+        <v>0</v>
       </c>
       <c r="Z17">
-        <v>25</v>
+        <v>4.0170000000000003</v>
       </c>
       <c r="AA17">
-        <v>173</v>
+        <v>25.879000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42029</v>
+        <v>38382</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>194</v>
+        <v>36.268000000000001</v>
       </c>
       <c r="D18">
-        <v>1251</v>
+        <v>566.476</v>
       </c>
       <c r="E18">
-        <v>474</v>
+        <v>296.279</v>
       </c>
       <c r="F18">
-        <v>699</v>
+        <v>191.88399999999999</v>
       </c>
       <c r="G18">
-        <v>5713</v>
+        <v>1306.9059999999999</v>
       </c>
       <c r="H18">
-        <v>7201</v>
+        <v>1663.5509999999999</v>
       </c>
       <c r="I18">
-        <v>293</v>
+        <v>238.22300000000001</v>
       </c>
       <c r="J18">
-        <v>1384</v>
+        <v>0</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -2100,78 +2220,78 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>896</v>
+        <v>421.15600000000001</v>
       </c>
       <c r="O18">
-        <v>2783</v>
+        <v>442.46</v>
       </c>
       <c r="P18">
-        <v>1398</v>
+        <v>0.85599999999999998</v>
       </c>
       <c r="Q18">
-        <v>102</v>
+        <v>51.825000000000003</v>
       </c>
       <c r="R18">
-        <v>42029</v>
+        <v>38382</v>
       </c>
       <c r="S18">
-        <v>9228</v>
+        <v>2101</v>
       </c>
       <c r="T18">
-        <v>4418</v>
+        <v>1221.0909999999999</v>
       </c>
       <c r="U18">
-        <v>497</v>
+        <v>208.512</v>
       </c>
       <c r="V18">
-        <v>443</v>
+        <v>99.171000000000006</v>
       </c>
       <c r="W18">
-        <v>-46</v>
+        <v>0</v>
       </c>
       <c r="X18">
-        <v>-23</v>
+        <v>11.175000000000001</v>
       </c>
       <c r="Y18">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="Z18">
-        <v>-287</v>
+        <v>-40.543999999999997</v>
       </c>
       <c r="AA18">
-        <v>194</v>
+        <v>36.268000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42120</v>
+        <v>38473</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>134</v>
+        <v>65.522000000000006</v>
       </c>
       <c r="D19">
-        <v>1151</v>
+        <v>583.846</v>
       </c>
       <c r="E19">
-        <v>455</v>
+        <v>255.25200000000001</v>
       </c>
       <c r="F19">
-        <v>653</v>
+        <v>209.86099999999999</v>
       </c>
       <c r="G19">
-        <v>5832</v>
+        <v>1319.6569999999999</v>
       </c>
       <c r="H19">
-        <v>7291</v>
+        <v>1635.0940000000001</v>
       </c>
       <c r="I19">
-        <v>222</v>
+        <v>182.14599999999999</v>
       </c>
       <c r="J19">
-        <v>1391</v>
+        <v>0</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -2180,81 +2300,81 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>883</v>
+        <v>375.52</v>
       </c>
       <c r="O19">
-        <v>2735</v>
+        <v>404.50700000000001</v>
       </c>
       <c r="P19">
-        <v>1404</v>
+        <v>0.34499999999999997</v>
       </c>
       <c r="Q19">
-        <v>-33</v>
+        <v>72.492000000000004</v>
       </c>
       <c r="R19">
-        <v>42120</v>
+        <v>38473</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="T19">
-        <v>4556</v>
+        <v>1230.587</v>
       </c>
       <c r="U19">
-        <v>464</v>
+        <v>281.00400000000002</v>
       </c>
       <c r="V19">
-        <v>246</v>
+        <v>89.578999999999994</v>
       </c>
       <c r="W19">
-        <v>-46</v>
+        <v>0</v>
       </c>
       <c r="X19">
-        <v>-44</v>
+        <v>-12.476000000000001</v>
       </c>
       <c r="Y19">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="Z19">
-        <v>-204</v>
+        <v>8.8930000000000007</v>
       </c>
       <c r="AA19">
-        <v>134</v>
+        <v>65.522000000000006</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42211</v>
+        <v>38564</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>26</v>
+        <v>73.832999999999998</v>
       </c>
       <c r="D20">
-        <v>1153</v>
+        <v>574.81200000000001</v>
       </c>
       <c r="E20">
-        <v>514</v>
+        <v>355.39299999999997</v>
       </c>
       <c r="F20">
-        <v>634</v>
+        <v>217.375</v>
       </c>
       <c r="G20">
-        <v>5608</v>
+        <v>1401.915</v>
       </c>
       <c r="H20">
-        <v>6979</v>
+        <v>1728.2180000000001</v>
       </c>
       <c r="I20">
-        <v>277</v>
+        <v>221.047</v>
       </c>
       <c r="J20">
-        <v>1399</v>
+        <v>0</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -2266,78 +2386,78 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>936</v>
+        <v>425.49799999999999</v>
       </c>
       <c r="O20">
-        <v>2794</v>
+        <v>452.98500000000001</v>
       </c>
       <c r="P20">
-        <v>1411</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>-29</v>
+        <v>-38.834000000000003</v>
       </c>
       <c r="R20">
-        <v>42211</v>
+        <v>38564</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
       <c r="T20">
-        <v>4185</v>
+        <v>1275.2329999999999</v>
       </c>
       <c r="U20">
-        <v>435</v>
+        <v>242.17</v>
       </c>
       <c r="V20">
-        <v>163</v>
+        <v>47.347000000000001</v>
       </c>
       <c r="W20">
-        <v>-53</v>
+        <v>0</v>
       </c>
       <c r="X20">
-        <v>-439</v>
+        <v>-30.503</v>
       </c>
       <c r="Y20">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="Z20">
-        <v>245</v>
+        <v>-26.492999999999999</v>
       </c>
       <c r="AA20">
-        <v>26</v>
+        <v>73.832999999999998</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42302</v>
+        <v>38655</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>246</v>
+        <v>64.447000000000003</v>
       </c>
       <c r="D21">
-        <v>1305</v>
+        <v>583.41499999999996</v>
       </c>
       <c r="E21">
-        <v>536</v>
+        <v>351.73700000000002</v>
       </c>
       <c r="F21">
-        <v>734</v>
+        <v>227.995</v>
       </c>
       <c r="G21">
-        <v>5834</v>
+        <v>1449.9760000000001</v>
       </c>
       <c r="H21">
-        <v>7174</v>
+        <v>1805.508</v>
       </c>
       <c r="I21">
-        <v>295</v>
+        <v>179.77699999999999</v>
       </c>
       <c r="J21">
-        <v>1409</v>
+        <v>0</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -2349,78 +2469,78 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>855</v>
+        <v>427.16699999999997</v>
       </c>
       <c r="O21">
-        <v>2709</v>
+        <v>456.06700000000001</v>
       </c>
       <c r="P21">
-        <v>1420</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>36</v>
+        <v>122.13800000000001</v>
       </c>
       <c r="R21">
-        <v>42302</v>
+        <v>38655</v>
       </c>
       <c r="S21">
         <v>0</v>
       </c>
       <c r="T21">
-        <v>4465</v>
+        <v>1349.441</v>
       </c>
       <c r="U21">
-        <v>471</v>
+        <v>364.30799999999999</v>
       </c>
       <c r="V21">
-        <v>255</v>
+        <v>84.099000000000004</v>
       </c>
       <c r="W21">
-        <v>-53</v>
+        <v>0</v>
       </c>
       <c r="X21">
-        <v>-20</v>
+        <v>8.8339999999999996</v>
       </c>
       <c r="Y21">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="Z21">
-        <v>-187</v>
+        <v>42.670999999999999</v>
       </c>
       <c r="AA21">
-        <v>246</v>
+        <v>64.447000000000003</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42400</v>
+        <v>38746</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>208</v>
+        <v>97.373999999999995</v>
       </c>
       <c r="D22">
-        <v>1401</v>
+        <v>633.61400000000003</v>
       </c>
       <c r="E22">
-        <v>505</v>
+        <v>318.18599999999998</v>
       </c>
       <c r="F22">
-        <v>791</v>
+        <v>257.80200000000002</v>
       </c>
       <c r="G22">
-        <v>6053</v>
+        <v>1550.299</v>
       </c>
       <c r="H22">
-        <v>7370</v>
+        <v>1954.6869999999999</v>
       </c>
       <c r="I22">
-        <v>296</v>
+        <v>179.39500000000001</v>
       </c>
       <c r="J22">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -2432,78 +2552,78 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>2351</v>
+        <v>438.65899999999999</v>
       </c>
       <c r="O22">
-        <v>2901</v>
+        <v>458.69499999999999</v>
       </c>
       <c r="P22">
-        <v>1434</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>125</v>
+        <v>187.44800000000001</v>
       </c>
       <c r="R22">
-        <v>42400</v>
+        <v>38746</v>
       </c>
       <c r="S22">
-        <v>9227</v>
+        <v>2737</v>
       </c>
       <c r="T22">
-        <v>4469</v>
+        <v>1495.992</v>
       </c>
       <c r="U22">
-        <v>596</v>
+        <v>551.75599999999997</v>
       </c>
       <c r="V22">
-        <v>511</v>
+        <v>225.38300000000001</v>
       </c>
       <c r="W22">
-        <v>-61</v>
+        <v>0</v>
       </c>
       <c r="X22">
-        <v>-173</v>
+        <v>-27.231999999999999</v>
       </c>
       <c r="Y22">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Z22">
-        <v>-193</v>
+        <v>24.873000000000001</v>
       </c>
       <c r="AA22">
-        <v>208</v>
+        <v>97.373999999999995</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42491</v>
+        <v>38837</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>208</v>
+        <v>92.063999999999993</v>
       </c>
       <c r="D23">
-        <v>1305</v>
+        <v>681.80700000000002</v>
       </c>
       <c r="E23">
-        <v>523</v>
+        <v>391.27</v>
       </c>
       <c r="F23">
-        <v>751</v>
+        <v>288.673</v>
       </c>
       <c r="G23">
-        <v>5790</v>
+        <v>1723.981</v>
       </c>
       <c r="H23">
-        <v>7108</v>
+        <v>2200.828</v>
       </c>
       <c r="I23">
-        <v>320</v>
+        <v>298.14699999999999</v>
       </c>
       <c r="J23">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -2515,78 +2635,78 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>2377</v>
+        <v>534.52599999999995</v>
       </c>
       <c r="O23">
-        <v>2912</v>
+        <v>552.20799999999997</v>
       </c>
       <c r="P23">
-        <v>1438</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>-49</v>
+        <v>-63.993000000000002</v>
       </c>
       <c r="R23">
-        <v>42491</v>
+        <v>38837</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
       <c r="T23">
-        <v>4196</v>
+        <v>1648.62</v>
       </c>
       <c r="U23">
-        <v>547</v>
+        <v>487.76299999999998</v>
       </c>
       <c r="V23">
-        <v>319</v>
+        <v>49.536000000000001</v>
       </c>
       <c r="W23">
-        <v>-62</v>
+        <v>0</v>
       </c>
       <c r="X23">
-        <v>-544</v>
+        <v>43.984999999999999</v>
       </c>
       <c r="Y23">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="Z23">
-        <v>235</v>
+        <v>-69.820999999999998</v>
       </c>
       <c r="AA23">
-        <v>208</v>
+        <v>92.063999999999993</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42582</v>
+        <v>38928</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>261</v>
+        <v>86.753</v>
       </c>
       <c r="D24">
-        <v>1428</v>
+        <v>687.51900000000001</v>
       </c>
       <c r="E24">
-        <v>644</v>
+        <v>459.63600000000002</v>
       </c>
       <c r="F24">
-        <v>826</v>
+        <v>292.12799999999999</v>
       </c>
       <c r="G24">
-        <v>6156</v>
+        <v>1726.289</v>
       </c>
       <c r="H24">
-        <v>7461</v>
+        <v>2183.8290000000002</v>
       </c>
       <c r="I24">
-        <v>423</v>
+        <v>230.916</v>
       </c>
       <c r="J24">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -2598,81 +2718,81 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>2407</v>
+        <v>505.04399999999998</v>
       </c>
       <c r="O24">
-        <v>2981</v>
+        <v>529.28099999999995</v>
       </c>
       <c r="P24">
-        <v>1448</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>-121</v>
+        <v>-99.34</v>
       </c>
       <c r="R24">
-        <v>42582</v>
+        <v>38928</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
       <c r="T24">
-        <v>4480</v>
+        <v>1654.548</v>
       </c>
       <c r="U24">
-        <v>426</v>
+        <v>388.423</v>
       </c>
       <c r="V24">
-        <v>200</v>
+        <v>17.861999999999998</v>
       </c>
       <c r="W24">
-        <v>-62</v>
+        <v>0</v>
       </c>
       <c r="X24">
-        <v>-52</v>
+        <v>-102.17100000000001</v>
       </c>
       <c r="Y24">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="Z24">
-        <v>-247</v>
+        <v>5.08</v>
       </c>
       <c r="AA24">
-        <v>261</v>
+        <v>86.753</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42673</v>
+        <v>39019</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>543</v>
+        <v>106.511</v>
       </c>
       <c r="D25">
-        <v>2004</v>
+        <v>820.572</v>
       </c>
       <c r="E25">
-        <v>833</v>
+        <v>439.25200000000001</v>
       </c>
       <c r="F25">
-        <v>1183</v>
+        <v>333.94200000000001</v>
       </c>
       <c r="G25">
-        <v>8307</v>
+        <v>2025.8879999999999</v>
       </c>
       <c r="H25">
-        <v>9612</v>
+        <v>2531.1529999999998</v>
       </c>
       <c r="I25">
-        <v>523</v>
+        <v>324.39600000000002</v>
       </c>
       <c r="J25">
-        <v>1991</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.34</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -2681,78 +2801,78 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>2041</v>
+        <v>657.76900000000001</v>
       </c>
       <c r="O25">
-        <v>4288</v>
+        <v>685.43600000000004</v>
       </c>
       <c r="P25">
-        <v>3013</v>
+        <v>0.34</v>
       </c>
       <c r="Q25">
-        <v>1514</v>
+        <v>353.32299999999998</v>
       </c>
       <c r="R25">
-        <v>42673</v>
+        <v>39019</v>
       </c>
       <c r="S25">
         <v>0</v>
       </c>
       <c r="T25">
-        <v>5324</v>
+        <v>1845.7170000000001</v>
       </c>
       <c r="U25">
-        <v>1940</v>
+        <v>741.74599999999998</v>
       </c>
       <c r="V25">
-        <v>432</v>
+        <v>289.31799999999998</v>
       </c>
       <c r="W25">
-        <v>-61</v>
+        <v>0</v>
       </c>
       <c r="X25">
-        <v>1409</v>
+        <v>60.374000000000002</v>
       </c>
       <c r="Y25">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="Z25">
-        <v>-289</v>
+        <v>32.427999999999997</v>
       </c>
       <c r="AA25">
-        <v>542</v>
+        <v>106.511</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42764</v>
+        <v>39110</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>654</v>
+        <v>163.506</v>
       </c>
       <c r="D26">
-        <v>2173</v>
+        <v>878.87300000000005</v>
       </c>
       <c r="E26">
-        <v>826</v>
+        <v>518.67999999999995</v>
       </c>
       <c r="F26">
-        <v>1303</v>
+        <v>385.70600000000002</v>
       </c>
       <c r="G26">
-        <v>8536</v>
+        <v>2031.77</v>
       </c>
       <c r="H26">
-        <v>9841</v>
+        <v>2675.2629999999999</v>
       </c>
       <c r="I26">
-        <v>485</v>
+        <v>272.07499999999999</v>
       </c>
       <c r="J26">
-        <v>1983</v>
+        <v>0</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -2764,78 +2884,78 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>1788</v>
+        <v>638.80700000000002</v>
       </c>
       <c r="O26">
-        <v>4079</v>
+        <v>668.34400000000005</v>
       </c>
       <c r="P26">
-        <v>2783</v>
+        <v>0</v>
       </c>
       <c r="Q26">
-        <v>-174</v>
+        <v>-197.33199999999999</v>
       </c>
       <c r="R26">
-        <v>42764</v>
+        <v>39110</v>
       </c>
       <c r="S26">
-        <v>10299</v>
+        <v>4083</v>
       </c>
       <c r="T26">
-        <v>5762</v>
+        <v>2006.9190000000001</v>
       </c>
       <c r="U26">
-        <v>1766</v>
+        <v>544.41399999999999</v>
       </c>
       <c r="V26">
-        <v>721</v>
+        <v>215.965</v>
       </c>
       <c r="W26">
-        <v>-76</v>
+        <v>0</v>
       </c>
       <c r="X26">
-        <v>-522</v>
+        <v>-55.817999999999998</v>
       </c>
       <c r="Y26">
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>-323</v>
+        <v>38.545999999999999</v>
       </c>
       <c r="AA26">
-        <v>654</v>
+        <v>163.506</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42855</v>
+        <v>39201</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>507</v>
+        <v>132.25899999999999</v>
       </c>
       <c r="D27">
-        <v>1937</v>
+        <v>844.28</v>
       </c>
       <c r="E27">
-        <v>976</v>
+        <v>471.51900000000001</v>
       </c>
       <c r="F27">
-        <v>1150</v>
+        <v>380.13799999999998</v>
       </c>
       <c r="G27">
-        <v>8116</v>
+        <v>2154.2330000000002</v>
       </c>
       <c r="H27">
-        <v>9410</v>
+        <v>2800.8679999999999</v>
       </c>
       <c r="I27">
-        <v>348</v>
+        <v>334.04599999999999</v>
       </c>
       <c r="J27">
-        <v>1987</v>
+        <v>0</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -2844,81 +2964,81 @@
         <v>0</v>
       </c>
       <c r="M27">
-        <v>-605</v>
+        <v>0</v>
       </c>
       <c r="N27">
-        <v>983</v>
+        <v>623.86699999999996</v>
       </c>
       <c r="O27">
-        <v>3278</v>
+        <v>704.97400000000005</v>
       </c>
       <c r="P27">
-        <v>2211</v>
+        <v>0</v>
       </c>
       <c r="Q27">
-        <v>223</v>
+        <v>134.53700000000001</v>
       </c>
       <c r="R27">
-        <v>42855</v>
+        <v>39201</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
       <c r="T27">
-        <v>6132</v>
+        <v>2095.8939999999998</v>
       </c>
       <c r="U27">
-        <v>1989</v>
+        <v>678.95100000000002</v>
       </c>
       <c r="V27">
-        <v>282</v>
+        <v>295.19799999999998</v>
       </c>
       <c r="W27">
-        <v>-82</v>
+        <v>0</v>
       </c>
       <c r="X27">
-        <v>-813</v>
+        <v>-80.888999999999996</v>
       </c>
       <c r="Y27">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Z27">
-        <v>808</v>
+        <v>-53.436</v>
       </c>
       <c r="AA27">
-        <v>507</v>
+        <v>132.25899999999999</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42946</v>
+        <v>39292</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>584</v>
+        <v>172.732</v>
       </c>
       <c r="D28">
-        <v>2230</v>
+        <v>935.25300000000004</v>
       </c>
       <c r="E28">
-        <v>1213</v>
+        <v>508.435</v>
       </c>
       <c r="F28">
-        <v>1302</v>
+        <v>423.99200000000002</v>
       </c>
       <c r="G28">
-        <v>8070</v>
+        <v>2397.4050000000002</v>
       </c>
       <c r="H28">
-        <v>9402</v>
+        <v>3036.2669999999998</v>
       </c>
       <c r="I28">
-        <v>431</v>
+        <v>323.38099999999997</v>
       </c>
       <c r="J28">
-        <v>1984</v>
+        <v>0</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -2930,78 +3050,78 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>1032</v>
+        <v>680.798</v>
       </c>
       <c r="O28">
-        <v>3429</v>
+        <v>775.98900000000003</v>
       </c>
       <c r="P28">
-        <v>2076</v>
+        <v>0</v>
       </c>
       <c r="Q28">
-        <v>-1</v>
+        <v>235.79400000000001</v>
       </c>
       <c r="R28">
-        <v>42946</v>
+        <v>39292</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
       <c r="T28">
-        <v>5973</v>
+        <v>2260.2779999999998</v>
       </c>
       <c r="U28">
-        <v>1988</v>
+        <v>914.745</v>
       </c>
       <c r="V28">
-        <v>705</v>
+        <v>321.67899999999997</v>
       </c>
       <c r="W28">
-        <v>-84</v>
+        <v>0</v>
       </c>
       <c r="X28">
-        <v>-968</v>
+        <v>-37.429000000000002</v>
       </c>
       <c r="Y28">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Z28">
-        <v>316</v>
+        <v>-27.812000000000001</v>
       </c>
       <c r="AA28">
-        <v>583</v>
+        <v>172.732</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43037</v>
+        <v>39383</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>837</v>
+        <v>235.661</v>
       </c>
       <c r="D29">
-        <v>2636</v>
+        <v>1115.597</v>
       </c>
       <c r="E29">
-        <v>1167</v>
+        <v>552.40700000000004</v>
       </c>
       <c r="F29">
-        <v>1569</v>
+        <v>515.553</v>
       </c>
       <c r="G29">
-        <v>8479</v>
+        <v>2756.0540000000001</v>
       </c>
       <c r="H29">
-        <v>9830</v>
+        <v>3475.2629999999999</v>
       </c>
       <c r="I29">
-        <v>511</v>
+        <v>449.79199999999997</v>
       </c>
       <c r="J29">
-        <v>1985</v>
+        <v>0</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -3013,78 +3133,78 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>1027</v>
+        <v>856.44200000000001</v>
       </c>
       <c r="O29">
-        <v>3478</v>
+        <v>997.33699999999999</v>
       </c>
       <c r="P29">
-        <v>2014</v>
+        <v>0</v>
       </c>
       <c r="Q29">
-        <v>814</v>
+        <v>141.95699999999999</v>
       </c>
       <c r="R29">
-        <v>43037</v>
+        <v>39383</v>
       </c>
       <c r="S29">
         <v>0</v>
       </c>
       <c r="T29">
-        <v>6352</v>
+        <v>2477.9259999999999</v>
       </c>
       <c r="U29">
-        <v>2802</v>
+        <v>1056.702</v>
       </c>
       <c r="V29">
-        <v>1157</v>
+        <v>400.84800000000001</v>
       </c>
       <c r="W29">
-        <v>-84</v>
+        <v>0</v>
       </c>
       <c r="X29">
-        <v>-629</v>
+        <v>-51.719000000000001</v>
       </c>
       <c r="Y29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z29">
-        <v>355</v>
+        <v>-136.74600000000001</v>
       </c>
       <c r="AA29">
-        <v>838</v>
+        <v>235.661</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43128</v>
+        <v>39474</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>1119</v>
+        <v>256.99299999999999</v>
       </c>
       <c r="D30">
-        <v>2911</v>
+        <v>1202.73</v>
       </c>
       <c r="E30">
-        <v>1265</v>
+        <v>666.49400000000003</v>
       </c>
       <c r="F30">
-        <v>1801</v>
+        <v>549.59699999999998</v>
       </c>
       <c r="G30">
-        <v>9255</v>
+        <v>2888.8290000000002</v>
       </c>
       <c r="H30">
-        <v>11241</v>
+        <v>3747.6709999999998</v>
       </c>
       <c r="I30">
-        <v>596</v>
+        <v>492.09899999999999</v>
       </c>
       <c r="J30">
-        <v>1985</v>
+        <v>0</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -3096,78 +3216,78 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>1153</v>
+        <v>967.16099999999994</v>
       </c>
       <c r="O30">
-        <v>3770</v>
+        <v>1129.759</v>
       </c>
       <c r="P30">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="Q30">
-        <v>1200</v>
+        <v>-329.733</v>
       </c>
       <c r="R30">
-        <v>43128</v>
+        <v>39474</v>
       </c>
       <c r="S30">
-        <v>11528</v>
+        <v>4985</v>
       </c>
       <c r="T30">
-        <v>7471</v>
+        <v>2617.9119999999998</v>
       </c>
       <c r="U30">
-        <v>4002</v>
+        <v>726.96900000000005</v>
       </c>
       <c r="V30">
-        <v>1358</v>
+        <v>252.471</v>
       </c>
       <c r="W30">
-        <v>-91</v>
+        <v>0</v>
       </c>
       <c r="X30">
-        <v>-134</v>
+        <v>-156.286</v>
       </c>
       <c r="Y30">
         <v>0</v>
       </c>
       <c r="Z30">
-        <v>390</v>
+        <v>-278.41500000000002</v>
       </c>
       <c r="AA30">
-        <v>1119</v>
+        <v>256.99299999999999</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43219</v>
+        <v>39565</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>1244</v>
+        <v>176.80500000000001</v>
       </c>
       <c r="D31">
-        <v>3207</v>
+        <v>1153.3879999999999</v>
       </c>
       <c r="E31">
-        <v>1220</v>
+        <v>651.79999999999995</v>
       </c>
       <c r="F31">
-        <v>2068</v>
+        <v>514.84299999999996</v>
       </c>
       <c r="G31">
-        <v>9448</v>
+        <v>2748.9929999999999</v>
       </c>
       <c r="H31">
-        <v>11460</v>
+        <v>3807.4580000000001</v>
       </c>
       <c r="I31">
-        <v>623</v>
+        <v>427.85500000000002</v>
       </c>
       <c r="J31">
-        <v>1986</v>
+        <v>0</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -3176,81 +3296,81 @@
         <v>0</v>
       </c>
       <c r="M31">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="N31">
-        <v>1106</v>
+        <v>876.55200000000002</v>
       </c>
       <c r="O31">
-        <v>3743</v>
+        <v>1070.28</v>
       </c>
       <c r="P31">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="Q31">
-        <v>-3237</v>
+        <v>76.338999999999999</v>
       </c>
       <c r="R31">
-        <v>43219</v>
+        <v>39565</v>
       </c>
       <c r="S31">
         <v>0</v>
       </c>
       <c r="T31">
-        <v>7717</v>
+        <v>2737.1779999999999</v>
       </c>
       <c r="U31">
-        <v>765</v>
+        <v>803.30799999999999</v>
       </c>
       <c r="V31">
-        <v>1445</v>
+        <v>145.245</v>
       </c>
       <c r="W31">
-        <v>-91</v>
+        <v>0</v>
       </c>
       <c r="X31">
-        <v>-1131</v>
+        <v>-93.438999999999993</v>
       </c>
       <c r="Y31">
         <v>0</v>
       </c>
       <c r="Z31">
-        <v>-3433</v>
+        <v>256.154</v>
       </c>
       <c r="AA31">
-        <v>1244</v>
+        <v>176.80500000000001</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43310</v>
+        <v>39656</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>1101</v>
+        <v>-120.929</v>
       </c>
       <c r="D32">
-        <v>3123</v>
+        <v>892.67600000000004</v>
       </c>
       <c r="E32">
-        <v>1662</v>
+        <v>679.41600000000005</v>
       </c>
       <c r="F32">
-        <v>1975</v>
+        <v>149.917</v>
       </c>
       <c r="G32">
-        <v>10831</v>
+        <v>2814.2190000000001</v>
       </c>
       <c r="H32">
-        <v>12882</v>
+        <v>3960.049</v>
       </c>
       <c r="I32">
-        <v>800</v>
+        <v>438.892</v>
       </c>
       <c r="J32">
-        <v>1987</v>
+        <v>0</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -3262,78 +3382,78 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>1462</v>
+        <v>1135.0160000000001</v>
       </c>
       <c r="O32">
-        <v>4087</v>
+        <v>1297.134</v>
       </c>
       <c r="P32">
-        <v>2001</v>
+        <v>0</v>
       </c>
       <c r="Q32">
-        <v>-47</v>
+        <v>-84.165000000000006</v>
       </c>
       <c r="R32">
-        <v>43310</v>
+        <v>39656</v>
       </c>
       <c r="S32">
         <v>0</v>
       </c>
       <c r="T32">
-        <v>8795</v>
+        <v>2662.915</v>
       </c>
       <c r="U32">
-        <v>718</v>
+        <v>719.14300000000003</v>
       </c>
       <c r="V32">
-        <v>913</v>
+        <v>80.956999999999994</v>
       </c>
       <c r="W32">
-        <v>-91</v>
+        <v>0</v>
       </c>
       <c r="X32">
-        <v>-155</v>
+        <v>9.5239999999999991</v>
       </c>
       <c r="Y32">
         <v>0</v>
       </c>
       <c r="Z32">
-        <v>-676</v>
+        <v>-124.35</v>
       </c>
       <c r="AA32">
-        <v>1101</v>
+        <v>-120.929</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43401</v>
+        <v>39747</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>1230</v>
+        <v>61.747999999999998</v>
       </c>
       <c r="D33">
-        <v>3181</v>
+        <v>897.65499999999997</v>
       </c>
       <c r="E33">
-        <v>2219</v>
+        <v>607.83399999999995</v>
       </c>
       <c r="F33">
-        <v>1921</v>
+        <v>367.84300000000002</v>
       </c>
       <c r="G33">
-        <v>11386</v>
+        <v>2480.0990000000002</v>
       </c>
       <c r="H33">
-        <v>13657</v>
+        <v>3648.8980000000001</v>
       </c>
       <c r="I33">
-        <v>902</v>
+        <v>387.25200000000001</v>
       </c>
       <c r="J33">
-        <v>1987</v>
+        <v>0</v>
       </c>
       <c r="K33">
         <v>0</v>
@@ -3345,78 +3465,78 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>1608</v>
+        <v>1004.465</v>
       </c>
       <c r="O33">
-        <v>4182</v>
+        <v>1161.8230000000001</v>
       </c>
       <c r="P33">
-        <v>1990</v>
+        <v>0</v>
       </c>
       <c r="Q33">
-        <v>3</v>
+        <v>-257.89</v>
       </c>
       <c r="R33">
-        <v>43401</v>
+        <v>39747</v>
       </c>
       <c r="S33">
         <v>0</v>
       </c>
       <c r="T33">
-        <v>9475</v>
+        <v>2487.0749999999998</v>
       </c>
       <c r="U33">
-        <v>721</v>
+        <v>461.25299999999999</v>
       </c>
       <c r="V33">
-        <v>487</v>
+        <v>43.003</v>
       </c>
       <c r="W33">
-        <v>-91</v>
+        <v>0</v>
       </c>
       <c r="X33">
-        <v>-703</v>
+        <v>-272.99099999999999</v>
       </c>
       <c r="Y33">
         <v>0</v>
       </c>
       <c r="Z33">
-        <v>369</v>
+        <v>81.355999999999995</v>
       </c>
       <c r="AA33">
-        <v>1230</v>
+        <v>61.747999999999998</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43492</v>
+        <v>39838</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>566</v>
+        <v>-147.66499999999999</v>
       </c>
       <c r="D34">
-        <v>2205</v>
+        <v>481.14</v>
       </c>
       <c r="E34">
-        <v>1424</v>
+        <v>318.435</v>
       </c>
       <c r="F34">
-        <v>1207</v>
+        <v>139.46600000000001</v>
       </c>
       <c r="G34">
-        <v>10557</v>
+        <v>2167.9580000000001</v>
       </c>
       <c r="H34">
-        <v>13292</v>
+        <v>3350.7269999999999</v>
       </c>
       <c r="I34">
-        <v>511</v>
+        <v>218.864</v>
       </c>
       <c r="J34">
-        <v>1988</v>
+        <v>0</v>
       </c>
       <c r="K34">
         <v>0</v>
@@ -3428,78 +3548,78 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>1329</v>
+        <v>778.59100000000001</v>
       </c>
       <c r="O34">
-        <v>3950</v>
+        <v>956.07500000000005</v>
       </c>
       <c r="P34">
-        <v>1988</v>
+        <v>25.634</v>
       </c>
       <c r="Q34">
-        <v>61</v>
+        <v>-43.564999999999998</v>
       </c>
       <c r="R34">
-        <v>43492</v>
+        <v>39838</v>
       </c>
       <c r="S34">
-        <v>13277</v>
+        <v>5420</v>
       </c>
       <c r="T34">
-        <v>9342</v>
+        <v>2394.652</v>
       </c>
       <c r="U34">
-        <v>782</v>
+        <v>417.68799999999999</v>
       </c>
       <c r="V34">
-        <v>898</v>
+        <v>-19.844999999999999</v>
       </c>
       <c r="W34">
-        <v>-98</v>
+        <v>0</v>
       </c>
       <c r="X34">
-        <v>-877</v>
+        <v>7.6319999999999997</v>
       </c>
       <c r="Y34">
-        <v>0</v>
+        <v>25.634</v>
       </c>
       <c r="Z34">
-        <v>243</v>
+        <v>13.532999999999999</v>
       </c>
       <c r="AA34">
-        <v>566</v>
+        <v>-147.66499999999999</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43583</v>
+        <v>39929</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>394</v>
+        <v>-201.33799999999999</v>
       </c>
       <c r="D35">
-        <v>2220</v>
+        <v>664.23099999999999</v>
       </c>
       <c r="E35">
-        <v>1242</v>
+        <v>304.39299999999997</v>
       </c>
       <c r="F35">
-        <v>1296</v>
+        <v>201.108</v>
       </c>
       <c r="G35">
-        <v>10629</v>
+        <v>2020.684</v>
       </c>
       <c r="H35">
-        <v>14021</v>
+        <v>3178.7040000000002</v>
       </c>
       <c r="I35">
-        <v>368</v>
+        <v>226.114</v>
       </c>
       <c r="J35">
-        <v>1988</v>
+        <v>0</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -3508,81 +3628,81 @@
         <v>0</v>
       </c>
       <c r="M35">
-        <v>0</v>
+        <v>-0.222</v>
       </c>
       <c r="N35">
-        <v>1183</v>
+        <v>702.17200000000003</v>
       </c>
       <c r="O35">
-        <v>4317</v>
+        <v>859.82799999999997</v>
       </c>
       <c r="P35">
-        <v>2554</v>
+        <v>25.350999999999999</v>
       </c>
       <c r="Q35">
-        <v>1990</v>
+        <v>94.585999999999999</v>
       </c>
       <c r="R35">
-        <v>43583</v>
+        <v>39929</v>
       </c>
       <c r="S35">
         <v>0</v>
       </c>
       <c r="T35">
-        <v>9704</v>
+        <v>2318.8760000000002</v>
       </c>
       <c r="U35">
-        <v>2772</v>
+        <v>512.274</v>
       </c>
       <c r="V35">
-        <v>720</v>
+        <v>142.12799999999999</v>
       </c>
       <c r="W35">
-        <v>-97</v>
+        <v>0</v>
       </c>
       <c r="X35">
-        <v>-225</v>
+        <v>-38.637</v>
       </c>
       <c r="Y35">
-        <v>486</v>
+        <v>25.350999999999999</v>
       </c>
       <c r="Z35">
-        <v>1623</v>
+        <v>11.872</v>
       </c>
       <c r="AA35">
-        <v>394</v>
+        <v>-201.33799999999999</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43674</v>
+        <v>40020</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>553</v>
+        <v>-105.30200000000001</v>
       </c>
       <c r="D36">
-        <v>2579</v>
+        <v>776.52</v>
       </c>
       <c r="E36">
-        <v>1561</v>
+        <v>351.96</v>
       </c>
       <c r="F36">
-        <v>1541</v>
+        <v>156.72300000000001</v>
       </c>
       <c r="G36">
-        <v>11391</v>
+        <v>2167.9050000000002</v>
       </c>
       <c r="H36">
-        <v>14775</v>
+        <v>3298.4090000000001</v>
       </c>
       <c r="I36">
-        <v>437</v>
+        <v>275.97800000000001</v>
       </c>
       <c r="J36">
-        <v>1989</v>
+        <v>0</v>
       </c>
       <c r="K36">
         <v>0</v>
@@ -3594,78 +3714,78 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>1317</v>
+        <v>891.32100000000003</v>
       </c>
       <c r="O36">
-        <v>4439</v>
+        <v>1051</v>
       </c>
       <c r="P36">
-        <v>2556</v>
+        <v>25.06</v>
       </c>
       <c r="Q36">
-        <v>4333</v>
+        <v>11.510999999999999</v>
       </c>
       <c r="R36">
-        <v>43674</v>
+        <v>40020</v>
       </c>
       <c r="S36">
         <v>0</v>
       </c>
       <c r="T36">
-        <v>10336</v>
+        <v>2247.4090000000001</v>
       </c>
       <c r="U36">
-        <v>7105</v>
+        <v>523.78499999999997</v>
       </c>
       <c r="V36">
-        <v>936</v>
+        <v>135.11699999999999</v>
       </c>
       <c r="W36">
-        <v>-98</v>
+        <v>0</v>
       </c>
       <c r="X36">
-        <v>-148</v>
+        <v>7.5510000000000002</v>
       </c>
       <c r="Y36">
-        <v>483</v>
+        <v>25.06</v>
       </c>
       <c r="Z36">
-        <v>3658</v>
+        <v>-114.283</v>
       </c>
       <c r="AA36">
-        <v>552</v>
+        <v>-105.30200000000001</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43765</v>
+        <v>40111</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>898</v>
+        <v>107.577</v>
       </c>
       <c r="D37">
-        <v>3014</v>
+        <v>903.20600000000002</v>
       </c>
       <c r="E37">
-        <v>1455</v>
+        <v>397.82</v>
       </c>
       <c r="F37">
-        <v>1916</v>
+        <v>391.78300000000002</v>
       </c>
       <c r="G37">
-        <v>12420</v>
+        <v>2357.7159999999999</v>
       </c>
       <c r="H37">
-        <v>15810</v>
+        <v>3463.5740000000001</v>
       </c>
       <c r="I37">
-        <v>591</v>
+        <v>321.52999999999997</v>
       </c>
       <c r="J37">
-        <v>1990</v>
+        <v>0</v>
       </c>
       <c r="K37">
         <v>0</v>
@@ -3677,78 +3797,78 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>1475</v>
+        <v>888.80600000000004</v>
       </c>
       <c r="O37">
-        <v>4596</v>
+        <v>1039.9390000000001</v>
       </c>
       <c r="P37">
-        <v>2548</v>
+        <v>24.76</v>
       </c>
       <c r="Q37">
-        <v>2660</v>
+        <v>90.704999999999998</v>
       </c>
       <c r="R37">
-        <v>43765</v>
+        <v>40111</v>
       </c>
       <c r="S37">
         <v>0</v>
       </c>
       <c r="T37">
-        <v>11214</v>
+        <v>2423.6350000000002</v>
       </c>
       <c r="U37">
-        <v>9765</v>
+        <v>614.49</v>
       </c>
       <c r="V37">
-        <v>1640</v>
+        <v>141.31700000000001</v>
       </c>
       <c r="W37">
-        <v>-97</v>
+        <v>0</v>
       </c>
       <c r="X37">
-        <v>-236</v>
+        <v>44.884999999999998</v>
       </c>
       <c r="Y37">
-        <v>469</v>
+        <v>24.76</v>
       </c>
       <c r="Z37">
-        <v>1359</v>
+        <v>-77.903999999999996</v>
       </c>
       <c r="AA37">
-        <v>899</v>
+        <v>107.577</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43856</v>
+        <v>40209</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>951</v>
+        <v>131.07599999999999</v>
       </c>
       <c r="D38">
-        <v>3105</v>
+        <v>982.48800000000006</v>
       </c>
       <c r="E38">
-        <v>1657</v>
+        <v>374.96300000000002</v>
       </c>
       <c r="F38">
-        <v>2015</v>
+        <v>438.721</v>
       </c>
       <c r="G38">
-        <v>13690</v>
+        <v>2480.83</v>
       </c>
       <c r="H38">
-        <v>17315</v>
+        <v>3585.9180000000001</v>
       </c>
       <c r="I38">
-        <v>687</v>
+        <v>344.52699999999999</v>
       </c>
       <c r="J38">
-        <v>1991</v>
+        <v>0</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -3760,78 +3880,78 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>1784</v>
+        <v>784.37800000000004</v>
       </c>
       <c r="O38">
-        <v>5111</v>
+        <v>920.77800000000002</v>
       </c>
       <c r="P38">
-        <v>2643</v>
+        <v>24.45</v>
       </c>
       <c r="Q38">
-        <v>1131</v>
+        <v>-167.26900000000001</v>
       </c>
       <c r="R38">
-        <v>43856</v>
+        <v>40209</v>
       </c>
       <c r="S38">
-        <v>13775</v>
+        <v>5706</v>
       </c>
       <c r="T38">
-        <v>12204</v>
+        <v>2665.14</v>
       </c>
       <c r="U38">
-        <v>10896</v>
+        <v>447.221</v>
       </c>
       <c r="V38">
-        <v>1465</v>
+        <v>69.245000000000005</v>
       </c>
       <c r="W38">
-        <v>-98</v>
+        <v>0</v>
       </c>
       <c r="X38">
-        <v>-183</v>
+        <v>47.26</v>
       </c>
       <c r="Y38">
-        <v>561</v>
+        <v>24.45</v>
       </c>
       <c r="Z38">
-        <v>-2</v>
+        <v>-261.19900000000001</v>
       </c>
       <c r="AA38">
-        <v>951</v>
+        <v>131.07599999999999</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43947</v>
+        <v>40300</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>917</v>
+        <v>137.59399999999999</v>
       </c>
       <c r="D39">
-        <v>3080</v>
+        <v>1001.813</v>
       </c>
       <c r="E39">
-        <v>1907</v>
+        <v>529.66300000000001</v>
       </c>
       <c r="F39">
-        <v>2004</v>
+        <v>456.37700000000001</v>
       </c>
       <c r="G39">
-        <v>19584</v>
+        <v>2726.98</v>
       </c>
       <c r="H39">
-        <v>23254</v>
+        <v>3803.03</v>
       </c>
       <c r="I39">
-        <v>761</v>
+        <v>362.74</v>
       </c>
       <c r="J39">
-        <v>6959</v>
+        <v>0</v>
       </c>
       <c r="K39">
         <v>0</v>
@@ -3840,81 +3960,81 @@
         <v>0</v>
       </c>
       <c r="M39">
-        <v>0</v>
+        <v>-0.28199999999999997</v>
       </c>
       <c r="N39">
-        <v>1903</v>
+        <v>765.29300000000001</v>
       </c>
       <c r="O39">
-        <v>10155</v>
+        <v>942.38499999999999</v>
       </c>
       <c r="P39">
-        <v>7578</v>
+        <v>24.097999999999999</v>
       </c>
       <c r="Q39">
-        <v>4598</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="R39">
-        <v>43947</v>
+        <v>40300</v>
       </c>
       <c r="S39">
         <v>0</v>
       </c>
       <c r="T39">
-        <v>13099</v>
+        <v>2860.645</v>
       </c>
       <c r="U39">
-        <v>15494</v>
+        <v>447.262</v>
       </c>
       <c r="V39">
-        <v>909</v>
+        <v>-5.3970000000000002</v>
       </c>
       <c r="W39">
-        <v>-98</v>
+        <v>0</v>
       </c>
       <c r="X39">
-        <v>4744</v>
+        <v>62.78</v>
       </c>
       <c r="Y39">
-        <v>519</v>
+        <v>24.097999999999999</v>
       </c>
       <c r="Z39">
-        <v>-866</v>
+        <v>-40.262</v>
       </c>
       <c r="AA39">
-        <v>917</v>
+        <v>137.59399999999999</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44038</v>
+        <v>40391</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>622</v>
+        <v>-140.96100000000001</v>
       </c>
       <c r="D40">
-        <v>3866</v>
+        <v>811.20799999999997</v>
       </c>
       <c r="E40">
-        <v>2084</v>
+        <v>395.93400000000003</v>
       </c>
       <c r="F40">
-        <v>2436</v>
+        <v>134.292</v>
       </c>
       <c r="G40">
-        <v>14681</v>
+        <v>2655.962</v>
       </c>
       <c r="H40">
-        <v>25180</v>
+        <v>3731.268</v>
       </c>
       <c r="I40">
-        <v>893</v>
+        <v>280.041</v>
       </c>
       <c r="J40">
-        <v>6960</v>
+        <v>0</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -3926,78 +4046,78 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>2410</v>
+        <v>819.13900000000001</v>
       </c>
       <c r="O40">
-        <v>11266</v>
+        <v>970.75400000000002</v>
       </c>
       <c r="P40">
-        <v>7695</v>
+        <v>23.734000000000002</v>
       </c>
       <c r="Q40">
-        <v>-12220</v>
+        <v>-70.259</v>
       </c>
       <c r="R40">
-        <v>44038</v>
+        <v>40391</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
       <c r="T40">
-        <v>13914</v>
+        <v>2760.5140000000001</v>
       </c>
       <c r="U40">
-        <v>3274</v>
+        <v>377.00299999999999</v>
       </c>
       <c r="V40">
-        <v>1567</v>
+        <v>34.344000000000001</v>
       </c>
       <c r="W40">
-        <v>-99</v>
+        <v>0</v>
       </c>
       <c r="X40">
-        <v>-297</v>
+        <v>14.497999999999999</v>
       </c>
       <c r="Y40">
-        <v>611</v>
+        <v>23.734000000000002</v>
       </c>
       <c r="Z40">
-        <v>-6136</v>
+        <v>-79.932000000000002</v>
       </c>
       <c r="AA40">
-        <v>622</v>
+        <v>-140.96100000000001</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44129</v>
+        <v>40482</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>1336</v>
+        <v>84.861999999999995</v>
       </c>
       <c r="D41">
-        <v>4726</v>
+        <v>843.91200000000003</v>
       </c>
       <c r="E41">
-        <v>2546</v>
+        <v>399.50200000000001</v>
       </c>
       <c r="F41">
-        <v>2960</v>
+        <v>392.06200000000001</v>
       </c>
       <c r="G41">
-        <v>14393</v>
+        <v>2807.7020000000002</v>
       </c>
       <c r="H41">
-        <v>26881</v>
+        <v>3915.5790000000002</v>
       </c>
       <c r="I41">
-        <v>1097</v>
+        <v>324.77</v>
       </c>
       <c r="J41">
-        <v>5963</v>
+        <v>0</v>
       </c>
       <c r="K41">
         <v>0</v>
@@ -4009,128 +4129,3448 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>3669</v>
+        <v>816.48900000000003</v>
       </c>
       <c r="O41">
-        <v>11547</v>
+        <v>1017.699</v>
       </c>
       <c r="P41">
-        <v>7681</v>
+        <v>23.359000000000002</v>
       </c>
       <c r="Q41">
-        <v>-1023</v>
+        <v>74.171000000000006</v>
       </c>
       <c r="R41">
-        <v>44129</v>
+        <v>40482</v>
       </c>
       <c r="S41">
         <v>0</v>
       </c>
       <c r="T41">
-        <v>15334</v>
+        <v>2897.88</v>
       </c>
       <c r="U41">
-        <v>2251</v>
+        <v>451.17399999999998</v>
       </c>
       <c r="V41">
-        <v>1279</v>
+        <v>212.17699999999999</v>
       </c>
       <c r="W41">
-        <v>-99</v>
+        <v>0</v>
       </c>
       <c r="X41">
-        <v>-301</v>
+        <v>25.978000000000002</v>
       </c>
       <c r="Y41">
-        <v>604</v>
+        <v>23.359000000000002</v>
       </c>
       <c r="Z41">
-        <v>-175</v>
+        <v>-142.03</v>
       </c>
       <c r="AA41">
-        <v>1336</v>
+        <v>84.861999999999995</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44227</v>
+        <v>40573</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>171.65100000000001</v>
+      </c>
+      <c r="D42">
+        <v>886.37599999999998</v>
+      </c>
+      <c r="E42">
+        <v>348.77</v>
+      </c>
+      <c r="F42">
+        <v>426.35899999999998</v>
+      </c>
+      <c r="G42">
+        <v>3226.95</v>
+      </c>
+      <c r="H42">
+        <v>4495.2460000000001</v>
+      </c>
+      <c r="I42">
+        <v>286.13799999999998</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>942.68200000000002</v>
+      </c>
+      <c r="O42">
+        <v>1313.7840000000001</v>
+      </c>
+      <c r="P42">
+        <v>23.388999999999999</v>
+      </c>
+      <c r="Q42">
+        <v>214.18700000000001</v>
+      </c>
+      <c r="R42">
+        <v>40573</v>
+      </c>
+      <c r="S42">
+        <v>6029</v>
+      </c>
+      <c r="T42">
+        <v>3181.462</v>
+      </c>
+      <c r="U42">
+        <v>665.36099999999999</v>
+      </c>
+      <c r="V42">
+        <v>434.673</v>
+      </c>
+      <c r="W42">
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <v>88.765000000000001</v>
+      </c>
+      <c r="Y42">
+        <v>23.388999999999999</v>
+      </c>
+      <c r="Z42">
+        <v>-287.40100000000001</v>
+      </c>
+      <c r="AA42">
+        <v>171.65100000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>40664</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>135.21899999999999</v>
+      </c>
+      <c r="D43">
+        <v>962.03899999999999</v>
+      </c>
+      <c r="E43">
+        <v>343.202</v>
+      </c>
+      <c r="F43">
+        <v>484.50299999999999</v>
+      </c>
+      <c r="G43">
+        <v>3496.7629999999999</v>
+      </c>
+      <c r="H43">
+        <v>4736.7439999999997</v>
+      </c>
+      <c r="I43">
+        <v>346.29500000000002</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>-0.35199999999999998</v>
+      </c>
+      <c r="N43">
+        <v>981.16600000000005</v>
+      </c>
+      <c r="O43">
+        <v>1288.9359999999999</v>
+      </c>
+      <c r="P43">
+        <v>22.957000000000001</v>
+      </c>
+      <c r="Q43">
+        <v>18.271999999999998</v>
+      </c>
+      <c r="R43">
+        <v>40664</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>3447.808</v>
+      </c>
+      <c r="U43">
+        <v>683.63300000000004</v>
+      </c>
+      <c r="V43">
+        <v>172.2</v>
+      </c>
+      <c r="W43">
+        <v>0</v>
+      </c>
+      <c r="X43">
+        <v>98.578000000000003</v>
+      </c>
+      <c r="Y43">
+        <v>22.957000000000001</v>
+      </c>
+      <c r="Z43">
+        <v>-220.928</v>
+      </c>
+      <c r="AA43">
+        <v>135.21899999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>40755</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>151.57300000000001</v>
+      </c>
+      <c r="D44">
+        <v>1016.5170000000001</v>
+      </c>
+      <c r="E44">
+        <v>419.94400000000002</v>
+      </c>
+      <c r="F44">
+        <v>525.28399999999999</v>
+      </c>
+      <c r="G44">
+        <v>3317.5569999999998</v>
+      </c>
+      <c r="H44">
+        <v>4864.424</v>
+      </c>
+      <c r="I44">
+        <v>297.81299999999999</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>960.29899999999998</v>
+      </c>
+      <c r="O44">
+        <v>1174.9549999999999</v>
+      </c>
+      <c r="P44">
+        <v>22.492999999999999</v>
+      </c>
+      <c r="Q44">
+        <v>-151.01900000000001</v>
+      </c>
+      <c r="R44">
+        <v>40755</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>3689.4690000000001</v>
+      </c>
+      <c r="U44">
+        <v>532.61400000000003</v>
+      </c>
+      <c r="V44">
+        <v>82.021000000000001</v>
+      </c>
+      <c r="W44">
+        <v>0</v>
+      </c>
+      <c r="X44">
+        <v>40.177999999999997</v>
+      </c>
+      <c r="Y44">
+        <v>22.492999999999999</v>
+      </c>
+      <c r="Z44">
+        <v>100.496</v>
+      </c>
+      <c r="AA44">
+        <v>151.57300000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>40846</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>178.273</v>
+      </c>
+      <c r="D45">
+        <v>1066.18</v>
+      </c>
+      <c r="E45">
+        <v>371.26100000000002</v>
+      </c>
+      <c r="F45">
+        <v>556.71699999999998</v>
+      </c>
+      <c r="G45">
+        <v>3500.0709999999999</v>
+      </c>
+      <c r="H45">
+        <v>5089.0429999999997</v>
+      </c>
+      <c r="I45">
+        <v>307.94299999999998</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>886.68399999999997</v>
+      </c>
+      <c r="O45">
+        <v>1115.5930000000001</v>
+      </c>
+      <c r="P45">
+        <v>21.949000000000002</v>
+      </c>
+      <c r="Q45">
+        <v>34.201999999999998</v>
+      </c>
+      <c r="R45">
+        <v>40846</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>3973.45</v>
+      </c>
+      <c r="U45">
+        <v>566.81600000000003</v>
+      </c>
+      <c r="V45">
+        <v>244.417</v>
+      </c>
+      <c r="W45">
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <v>78.930000000000007</v>
+      </c>
+      <c r="Y45">
+        <v>21.949000000000002</v>
+      </c>
+      <c r="Z45">
+        <v>-250.11</v>
+      </c>
+      <c r="AA45">
+        <v>178.273</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>40937</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>116.02500000000001</v>
+      </c>
+      <c r="D46">
+        <v>953.19399999999996</v>
+      </c>
+      <c r="E46">
+        <v>336.14299999999997</v>
+      </c>
+      <c r="F46">
+        <v>490.01299999999998</v>
+      </c>
+      <c r="G46">
+        <v>3905.3580000000002</v>
+      </c>
+      <c r="H46">
+        <v>5552.9279999999999</v>
+      </c>
+      <c r="I46">
+        <v>335.072</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>929.95799999999997</v>
+      </c>
+      <c r="O46">
+        <v>1407.204</v>
+      </c>
+      <c r="P46">
+        <v>21.439</v>
+      </c>
+      <c r="Q46">
+        <v>101.06</v>
+      </c>
+      <c r="R46">
+        <v>40937</v>
+      </c>
+      <c r="S46">
+        <v>7133</v>
+      </c>
+      <c r="T46">
+        <v>4145.7240000000002</v>
+      </c>
+      <c r="U46">
+        <v>667.87599999999998</v>
+      </c>
+      <c r="V46">
+        <v>410.51799999999997</v>
+      </c>
+      <c r="W46">
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <v>19.036999999999999</v>
+      </c>
+      <c r="Y46">
+        <v>21.439</v>
+      </c>
+      <c r="Z46">
+        <v>-283.613</v>
+      </c>
+      <c r="AA46">
+        <v>116.02500000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>41028</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>60.436999999999998</v>
+      </c>
+      <c r="D47">
+        <v>924.87699999999995</v>
+      </c>
+      <c r="E47">
+        <v>411.15499999999997</v>
+      </c>
+      <c r="F47">
+        <v>463.36399999999998</v>
+      </c>
+      <c r="G47">
+        <v>4032.116</v>
+      </c>
+      <c r="H47">
+        <v>5708.1670000000004</v>
+      </c>
+      <c r="I47">
+        <v>395.57799999999997</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>-0.51500000000000001</v>
+      </c>
+      <c r="N47">
+        <v>947.404</v>
+      </c>
+      <c r="O47">
+        <v>1420.739</v>
+      </c>
+      <c r="P47">
+        <v>20.83</v>
+      </c>
+      <c r="Q47">
+        <v>-298.74099999999999</v>
+      </c>
+      <c r="R47">
+        <v>41028</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>4287.4279999999999</v>
+      </c>
+      <c r="U47">
+        <v>369.13499999999999</v>
+      </c>
+      <c r="V47">
+        <v>-9.2080000000000002</v>
+      </c>
+      <c r="W47">
+        <v>0</v>
+      </c>
+      <c r="X47">
+        <v>45.521000000000001</v>
+      </c>
+      <c r="Y47">
+        <v>20.83</v>
+      </c>
+      <c r="Z47">
+        <v>-306.34699999999998</v>
+      </c>
+      <c r="AA47">
+        <v>60.436999999999998</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>41119</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>119.04600000000001</v>
+      </c>
+      <c r="D48">
+        <v>1044.27</v>
+      </c>
+      <c r="E48">
+        <v>445.31200000000001</v>
+      </c>
+      <c r="F48">
+        <v>540.71900000000005</v>
+      </c>
+      <c r="G48">
+        <v>4213.8509999999997</v>
+      </c>
+      <c r="H48">
+        <v>5891.8810000000003</v>
+      </c>
+      <c r="I48">
+        <v>417.25</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>1021.96</v>
+      </c>
+      <c r="O48">
+        <v>1438.2159999999999</v>
+      </c>
+      <c r="P48">
+        <v>20.236999999999998</v>
+      </c>
+      <c r="Q48">
+        <v>130.483</v>
+      </c>
+      <c r="R48">
+        <v>41119</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>4453.665</v>
+      </c>
+      <c r="U48">
+        <v>499.61799999999999</v>
+      </c>
+      <c r="V48">
+        <v>200.886</v>
+      </c>
+      <c r="W48">
+        <v>0</v>
+      </c>
+      <c r="X48">
+        <v>14.3</v>
+      </c>
+      <c r="Y48">
+        <v>20.236999999999998</v>
+      </c>
+      <c r="Z48">
+        <v>-22.460999999999999</v>
+      </c>
+      <c r="AA48">
+        <v>119.04600000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>41210</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>209.08</v>
+      </c>
+      <c r="D49">
+        <v>1204.1099999999999</v>
+      </c>
+      <c r="E49">
+        <v>444.94400000000002</v>
+      </c>
+      <c r="F49">
+        <v>636.65800000000002</v>
+      </c>
+      <c r="G49">
+        <v>4424.8270000000002</v>
+      </c>
+      <c r="H49">
+        <v>6075.1440000000002</v>
+      </c>
+      <c r="I49">
+        <v>390.26499999999999</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>991.35900000000004</v>
+      </c>
+      <c r="O49">
+        <v>1352.298</v>
+      </c>
+      <c r="P49">
+        <v>19.626999999999999</v>
+      </c>
+      <c r="Q49">
+        <v>25.77</v>
+      </c>
+      <c r="R49">
+        <v>41210</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>4722.8459999999995</v>
+      </c>
+      <c r="U49">
+        <v>525.38800000000003</v>
+      </c>
+      <c r="V49">
+        <v>181.48500000000001</v>
+      </c>
+      <c r="W49">
+        <v>0</v>
+      </c>
+      <c r="X49">
+        <v>27.084</v>
+      </c>
+      <c r="Y49">
+        <v>19.626999999999999</v>
+      </c>
+      <c r="Z49">
+        <v>-138.33199999999999</v>
+      </c>
+      <c r="AA49">
+        <v>209.08</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>41301</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>173.97300000000001</v>
+      </c>
+      <c r="D50">
+        <v>1106.902</v>
+      </c>
+      <c r="E50">
+        <v>454.25200000000001</v>
+      </c>
+      <c r="F50">
+        <v>585.60199999999998</v>
+      </c>
+      <c r="G50">
+        <v>4775.2579999999998</v>
+      </c>
+      <c r="H50">
+        <v>6412.2449999999999</v>
+      </c>
+      <c r="I50">
+        <v>356.428</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>976.22299999999996</v>
+      </c>
+      <c r="O50">
+        <v>1584.5419999999999</v>
+      </c>
+      <c r="P50">
+        <v>18.998000000000001</v>
+      </c>
+      <c r="Q50">
+        <v>207.398</v>
+      </c>
+      <c r="R50">
+        <v>41301</v>
+      </c>
+      <c r="S50">
+        <v>7974</v>
+      </c>
+      <c r="T50">
+        <v>4827.7030000000004</v>
+      </c>
+      <c r="U50">
+        <v>732.78599999999994</v>
+      </c>
+      <c r="V50">
+        <v>451.00900000000001</v>
+      </c>
+      <c r="W50">
+        <v>-46.866</v>
+      </c>
+      <c r="X50">
+        <v>-102.175</v>
+      </c>
+      <c r="Y50">
+        <v>18.998000000000001</v>
+      </c>
+      <c r="Z50">
+        <v>-93.894999999999996</v>
+      </c>
+      <c r="AA50">
+        <v>173.97300000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>41392</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>77.891000000000005</v>
+      </c>
+      <c r="D51">
+        <v>954.73900000000003</v>
+      </c>
+      <c r="E51">
+        <v>346.99799999999999</v>
+      </c>
+      <c r="F51">
+        <v>518.56799999999998</v>
+      </c>
+      <c r="G51">
+        <v>4606.616</v>
+      </c>
+      <c r="H51">
+        <v>6279.527</v>
+      </c>
+      <c r="I51">
+        <v>328.25900000000001</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>-0.57599999999999996</v>
+      </c>
+      <c r="N51">
+        <v>925.577</v>
+      </c>
+      <c r="O51">
+        <v>1454.5909999999999</v>
+      </c>
+      <c r="P51">
+        <v>18.332999999999998</v>
+      </c>
+      <c r="Q51">
+        <v>-171.363</v>
+      </c>
+      <c r="R51">
+        <v>41392</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>4824.9359999999997</v>
+      </c>
+      <c r="U51">
+        <v>561.423</v>
+      </c>
+      <c r="V51">
+        <v>175.65</v>
+      </c>
+      <c r="W51">
+        <v>-46.267000000000003</v>
+      </c>
+      <c r="X51">
+        <v>-116.227</v>
+      </c>
+      <c r="Y51">
+        <v>18.332999999999998</v>
+      </c>
+      <c r="Z51">
+        <v>-163.66900000000001</v>
+      </c>
+      <c r="AA51">
+        <v>77.891000000000005</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>41483</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>96.447999999999993</v>
+      </c>
+      <c r="D52">
+        <v>977.23800000000006</v>
+      </c>
+      <c r="E52">
+        <v>418.12299999999999</v>
+      </c>
+      <c r="F52">
+        <v>545.53800000000001</v>
+      </c>
+      <c r="G52">
+        <v>3922.6080000000002</v>
+      </c>
+      <c r="H52">
+        <v>5569.5919999999996</v>
+      </c>
+      <c r="I52">
+        <v>310.27100000000002</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>935.79100000000005</v>
+      </c>
+      <c r="O52">
+        <v>1397.4190000000001</v>
+      </c>
+      <c r="P52">
+        <v>17.684999999999999</v>
+      </c>
+      <c r="Q52">
+        <v>29.898</v>
+      </c>
+      <c r="R52">
+        <v>41483</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>4172.1729999999998</v>
+      </c>
+      <c r="U52">
+        <v>591.32100000000003</v>
+      </c>
+      <c r="V52">
+        <v>96.468999999999994</v>
+      </c>
+      <c r="W52">
+        <v>-43.343000000000004</v>
+      </c>
+      <c r="X52">
+        <v>-778.38900000000001</v>
+      </c>
+      <c r="Y52">
+        <v>17.684999999999999</v>
+      </c>
+      <c r="Z52">
+        <v>796.80399999999997</v>
+      </c>
+      <c r="AA52">
+        <v>96.447999999999993</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>41574</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>118.73399999999999</v>
+      </c>
+      <c r="D53">
+        <v>1053.9670000000001</v>
+      </c>
+      <c r="E53">
+        <v>447.63099999999997</v>
+      </c>
+      <c r="F53">
+        <v>584.41499999999996</v>
+      </c>
+      <c r="G53">
+        <v>4049.8409999999999</v>
+      </c>
+      <c r="H53">
+        <v>5711.3729999999996</v>
+      </c>
+      <c r="I53">
+        <v>333.28300000000002</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>985.92700000000002</v>
+      </c>
+      <c r="O53">
+        <v>1390.7260000000001</v>
+      </c>
+      <c r="P53">
+        <v>17.015000000000001</v>
+      </c>
+      <c r="Q53">
+        <v>-29.236999999999998</v>
+      </c>
+      <c r="R53">
+        <v>41574</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>4320.6469999999999</v>
+      </c>
+      <c r="U53">
+        <v>562.08399999999995</v>
+      </c>
+      <c r="V53">
+        <v>162.315</v>
+      </c>
+      <c r="W53">
+        <v>-43.396999999999998</v>
+      </c>
+      <c r="X53">
+        <v>-4.1790000000000003</v>
+      </c>
+      <c r="Y53">
+        <v>17.015000000000001</v>
+      </c>
+      <c r="Z53">
+        <v>-131.06899999999999</v>
+      </c>
+      <c r="AA53">
+        <v>118.73399999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>41665</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>146.917</v>
+      </c>
+      <c r="D54">
+        <v>1144.2180000000001</v>
+      </c>
+      <c r="E54">
+        <v>426.35700000000003</v>
+      </c>
+      <c r="F54">
+        <v>619.24199999999996</v>
+      </c>
+      <c r="G54">
+        <v>5624.7110000000002</v>
+      </c>
+      <c r="H54">
+        <v>7250.8940000000002</v>
+      </c>
+      <c r="I54">
+        <v>324.39100000000002</v>
+      </c>
+      <c r="J54">
+        <v>1356.375</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>945.49599999999998</v>
+      </c>
+      <c r="O54">
+        <v>2794.4960000000001</v>
+      </c>
+      <c r="P54">
+        <v>1373.875</v>
+      </c>
+      <c r="Q54">
+        <v>589.50300000000004</v>
+      </c>
+      <c r="R54">
+        <v>41665</v>
+      </c>
+      <c r="S54">
+        <v>8808</v>
+      </c>
+      <c r="T54">
+        <v>4456.3980000000001</v>
+      </c>
+      <c r="U54">
+        <v>1151.587</v>
+      </c>
+      <c r="V54">
+        <v>400.71199999999999</v>
+      </c>
+      <c r="W54">
+        <v>-48.329000000000001</v>
+      </c>
+      <c r="X54">
+        <v>1288.3869999999999</v>
+      </c>
+      <c r="Y54">
+        <v>17.5</v>
+      </c>
+      <c r="Z54">
+        <v>-1055.5029999999999</v>
+      </c>
+      <c r="AA54">
+        <v>146.917</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>41756</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>137</v>
+      </c>
+      <c r="D55">
+        <v>1103</v>
+      </c>
+      <c r="E55">
+        <v>396.43799999999999</v>
+      </c>
+      <c r="F55">
+        <v>604</v>
+      </c>
+      <c r="G55">
+        <v>5273.7979999999998</v>
+      </c>
+      <c r="H55">
+        <v>6864.6629999999996</v>
+      </c>
+      <c r="I55">
+        <v>309.00799999999998</v>
+      </c>
+      <c r="J55">
+        <v>1363.2760000000001</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>-1</v>
+      </c>
+      <c r="N55">
+        <v>897.94500000000005</v>
+      </c>
+      <c r="O55">
+        <v>2697.6779999999999</v>
+      </c>
+      <c r="P55">
+        <v>1379.9590000000001</v>
+      </c>
+      <c r="Q55">
+        <v>-643</v>
+      </c>
+      <c r="R55">
+        <v>41756</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>4166.9849999999997</v>
+      </c>
+      <c r="U55">
+        <v>509.16500000000002</v>
+      </c>
+      <c r="V55">
+        <v>151</v>
+      </c>
+      <c r="W55">
+        <v>-47</v>
+      </c>
+      <c r="X55">
+        <v>-464</v>
+      </c>
+      <c r="Y55">
+        <v>16.683</v>
+      </c>
+      <c r="Z55">
+        <v>-322</v>
+      </c>
+      <c r="AA55">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>41847</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>128</v>
+      </c>
+      <c r="D56">
+        <v>1103</v>
+      </c>
+      <c r="E56">
+        <v>469.625</v>
+      </c>
+      <c r="F56">
+        <v>619</v>
+      </c>
+      <c r="G56">
+        <v>5377.5860000000002</v>
+      </c>
+      <c r="H56">
+        <v>6933.7190000000001</v>
+      </c>
+      <c r="I56">
+        <v>261.62700000000001</v>
+      </c>
+      <c r="J56">
+        <v>1370.249</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>868.72900000000004</v>
+      </c>
+      <c r="O56">
+        <v>2628.933</v>
+      </c>
+      <c r="P56">
+        <v>1386.0909999999999</v>
+      </c>
+      <c r="Q56">
+        <v>6</v>
+      </c>
+      <c r="R56">
+        <v>41847</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>4304.7860000000001</v>
+      </c>
+      <c r="U56">
+        <v>515.09199999999998</v>
+      </c>
+      <c r="V56">
+        <v>96</v>
+      </c>
+      <c r="W56">
+        <v>-47</v>
+      </c>
+      <c r="X56">
+        <v>-26</v>
+      </c>
+      <c r="Y56">
+        <v>15.842000000000001</v>
+      </c>
+      <c r="Z56">
+        <v>-41</v>
+      </c>
+      <c r="AA56">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>41938</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>172</v>
+      </c>
+      <c r="D57">
+        <v>1225</v>
+      </c>
+      <c r="E57">
+        <v>563.4</v>
+      </c>
+      <c r="F57">
+        <v>676</v>
+      </c>
+      <c r="G57">
+        <v>5341.1090000000004</v>
+      </c>
+      <c r="H57">
+        <v>6885.8689999999997</v>
+      </c>
+      <c r="I57">
+        <v>328.09699999999998</v>
+      </c>
+      <c r="J57">
+        <v>1377.259</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>933.90700000000004</v>
+      </c>
+      <c r="O57">
+        <v>2681.2759999999998</v>
+      </c>
+      <c r="P57">
+        <v>1392.2360000000001</v>
+      </c>
+      <c r="Q57">
+        <v>-120</v>
+      </c>
+      <c r="R57">
+        <v>41938</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>4204.5929999999998</v>
+      </c>
+      <c r="U57">
+        <v>394.68299999999999</v>
+      </c>
+      <c r="V57">
+        <v>216</v>
+      </c>
+      <c r="W57">
+        <v>-46</v>
+      </c>
+      <c r="X57">
+        <v>-321</v>
+      </c>
+      <c r="Y57">
+        <v>14.977</v>
+      </c>
+      <c r="Z57">
+        <v>25</v>
+      </c>
+      <c r="AA57">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>42029</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>194</v>
+      </c>
+      <c r="D58">
+        <v>1251</v>
+      </c>
+      <c r="E58">
+        <v>474</v>
+      </c>
+      <c r="F58">
+        <v>699</v>
+      </c>
+      <c r="G58">
+        <v>5713</v>
+      </c>
+      <c r="H58">
+        <v>7201</v>
+      </c>
+      <c r="I58">
+        <v>293</v>
+      </c>
+      <c r="J58">
+        <v>1384</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>896</v>
+      </c>
+      <c r="O58">
+        <v>2783</v>
+      </c>
+      <c r="P58">
+        <v>1398</v>
+      </c>
+      <c r="Q58">
+        <v>102</v>
+      </c>
+      <c r="R58">
+        <v>42029</v>
+      </c>
+      <c r="S58">
+        <v>9228</v>
+      </c>
+      <c r="T58">
+        <v>4418</v>
+      </c>
+      <c r="U58">
+        <v>497</v>
+      </c>
+      <c r="V58">
+        <v>443</v>
+      </c>
+      <c r="W58">
+        <v>-46</v>
+      </c>
+      <c r="X58">
+        <v>-23</v>
+      </c>
+      <c r="Y58">
+        <v>14</v>
+      </c>
+      <c r="Z58">
+        <v>-287</v>
+      </c>
+      <c r="AA58">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>42120</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>134</v>
+      </c>
+      <c r="D59">
+        <v>1151</v>
+      </c>
+      <c r="E59">
+        <v>455</v>
+      </c>
+      <c r="F59">
+        <v>653</v>
+      </c>
+      <c r="G59">
+        <v>5832</v>
+      </c>
+      <c r="H59">
+        <v>7291</v>
+      </c>
+      <c r="I59">
+        <v>222</v>
+      </c>
+      <c r="J59">
+        <v>1391</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>-1</v>
+      </c>
+      <c r="N59">
+        <v>883</v>
+      </c>
+      <c r="O59">
+        <v>2735</v>
+      </c>
+      <c r="P59">
+        <v>1404</v>
+      </c>
+      <c r="Q59">
+        <v>-33</v>
+      </c>
+      <c r="R59">
+        <v>42120</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>4556</v>
+      </c>
+      <c r="U59">
+        <v>464</v>
+      </c>
+      <c r="V59">
+        <v>246</v>
+      </c>
+      <c r="W59">
+        <v>-46</v>
+      </c>
+      <c r="X59">
+        <v>-44</v>
+      </c>
+      <c r="Y59">
+        <v>13</v>
+      </c>
+      <c r="Z59">
+        <v>-204</v>
+      </c>
+      <c r="AA59">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>42211</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>26</v>
+      </c>
+      <c r="D60">
+        <v>1153</v>
+      </c>
+      <c r="E60">
+        <v>514</v>
+      </c>
+      <c r="F60">
+        <v>634</v>
+      </c>
+      <c r="G60">
+        <v>5608</v>
+      </c>
+      <c r="H60">
+        <v>6979</v>
+      </c>
+      <c r="I60">
+        <v>277</v>
+      </c>
+      <c r="J60">
+        <v>1399</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>936</v>
+      </c>
+      <c r="O60">
+        <v>2794</v>
+      </c>
+      <c r="P60">
+        <v>1411</v>
+      </c>
+      <c r="Q60">
+        <v>-29</v>
+      </c>
+      <c r="R60">
+        <v>42211</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>4185</v>
+      </c>
+      <c r="U60">
+        <v>435</v>
+      </c>
+      <c r="V60">
+        <v>163</v>
+      </c>
+      <c r="W60">
+        <v>-53</v>
+      </c>
+      <c r="X60">
+        <v>-439</v>
+      </c>
+      <c r="Y60">
+        <v>12</v>
+      </c>
+      <c r="Z60">
+        <v>245</v>
+      </c>
+      <c r="AA60">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>42302</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>246</v>
+      </c>
+      <c r="D61">
+        <v>1305</v>
+      </c>
+      <c r="E61">
+        <v>536</v>
+      </c>
+      <c r="F61">
+        <v>734</v>
+      </c>
+      <c r="G61">
+        <v>5834</v>
+      </c>
+      <c r="H61">
+        <v>7174</v>
+      </c>
+      <c r="I61">
+        <v>295</v>
+      </c>
+      <c r="J61">
+        <v>1409</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>855</v>
+      </c>
+      <c r="O61">
+        <v>2709</v>
+      </c>
+      <c r="P61">
+        <v>1420</v>
+      </c>
+      <c r="Q61">
+        <v>36</v>
+      </c>
+      <c r="R61">
+        <v>42302</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>4465</v>
+      </c>
+      <c r="U61">
+        <v>471</v>
+      </c>
+      <c r="V61">
+        <v>255</v>
+      </c>
+      <c r="W61">
+        <v>-53</v>
+      </c>
+      <c r="X61">
+        <v>-20</v>
+      </c>
+      <c r="Y61">
+        <v>11</v>
+      </c>
+      <c r="Z61">
+        <v>-187</v>
+      </c>
+      <c r="AA61">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>42400</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>208</v>
+      </c>
+      <c r="D62">
+        <v>1401</v>
+      </c>
+      <c r="E62">
+        <v>505</v>
+      </c>
+      <c r="F62">
+        <v>791</v>
+      </c>
+      <c r="G62">
+        <v>6053</v>
+      </c>
+      <c r="H62">
+        <v>7370</v>
+      </c>
+      <c r="I62">
+        <v>296</v>
+      </c>
+      <c r="J62">
+        <v>7</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>2351</v>
+      </c>
+      <c r="O62">
+        <v>2901</v>
+      </c>
+      <c r="P62">
+        <v>1434</v>
+      </c>
+      <c r="Q62">
+        <v>125</v>
+      </c>
+      <c r="R62">
+        <v>42400</v>
+      </c>
+      <c r="S62">
+        <v>9227</v>
+      </c>
+      <c r="T62">
+        <v>4469</v>
+      </c>
+      <c r="U62">
+        <v>596</v>
+      </c>
+      <c r="V62">
+        <v>511</v>
+      </c>
+      <c r="W62">
+        <v>-61</v>
+      </c>
+      <c r="X62">
+        <v>-173</v>
+      </c>
+      <c r="Y62">
+        <v>10</v>
+      </c>
+      <c r="Z62">
+        <v>-193</v>
+      </c>
+      <c r="AA62">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>42491</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>208</v>
+      </c>
+      <c r="D63">
+        <v>1305</v>
+      </c>
+      <c r="E63">
+        <v>523</v>
+      </c>
+      <c r="F63">
+        <v>751</v>
+      </c>
+      <c r="G63">
+        <v>5790</v>
+      </c>
+      <c r="H63">
+        <v>7108</v>
+      </c>
+      <c r="I63">
+        <v>320</v>
+      </c>
+      <c r="J63">
+        <v>8</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>2377</v>
+      </c>
+      <c r="O63">
+        <v>2912</v>
+      </c>
+      <c r="P63">
+        <v>1438</v>
+      </c>
+      <c r="Q63">
+        <v>-49</v>
+      </c>
+      <c r="R63">
+        <v>42491</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>4196</v>
+      </c>
+      <c r="U63">
+        <v>547</v>
+      </c>
+      <c r="V63">
+        <v>319</v>
+      </c>
+      <c r="W63">
+        <v>-62</v>
+      </c>
+      <c r="X63">
+        <v>-544</v>
+      </c>
+      <c r="Y63">
+        <v>9</v>
+      </c>
+      <c r="Z63">
+        <v>235</v>
+      </c>
+      <c r="AA63">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>42582</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>261</v>
+      </c>
+      <c r="D64">
+        <v>1428</v>
+      </c>
+      <c r="E64">
+        <v>644</v>
+      </c>
+      <c r="F64">
+        <v>826</v>
+      </c>
+      <c r="G64">
+        <v>6156</v>
+      </c>
+      <c r="H64">
+        <v>7461</v>
+      </c>
+      <c r="I64">
+        <v>423</v>
+      </c>
+      <c r="J64">
+        <v>12</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>2407</v>
+      </c>
+      <c r="O64">
+        <v>2981</v>
+      </c>
+      <c r="P64">
+        <v>1448</v>
+      </c>
+      <c r="Q64">
+        <v>-121</v>
+      </c>
+      <c r="R64">
+        <v>42582</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>4480</v>
+      </c>
+      <c r="U64">
+        <v>426</v>
+      </c>
+      <c r="V64">
+        <v>200</v>
+      </c>
+      <c r="W64">
+        <v>-62</v>
+      </c>
+      <c r="X64">
+        <v>-52</v>
+      </c>
+      <c r="Y64">
+        <v>8</v>
+      </c>
+      <c r="Z64">
+        <v>-247</v>
+      </c>
+      <c r="AA64">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>42673</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>543</v>
+      </c>
+      <c r="D65">
+        <v>2004</v>
+      </c>
+      <c r="E65">
+        <v>833</v>
+      </c>
+      <c r="F65">
+        <v>1183</v>
+      </c>
+      <c r="G65">
+        <v>8307</v>
+      </c>
+      <c r="H65">
+        <v>9612</v>
+      </c>
+      <c r="I65">
+        <v>523</v>
+      </c>
+      <c r="J65">
+        <v>1991</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>2041</v>
+      </c>
+      <c r="O65">
+        <v>4288</v>
+      </c>
+      <c r="P65">
+        <v>3013</v>
+      </c>
+      <c r="Q65">
+        <v>1514</v>
+      </c>
+      <c r="R65">
+        <v>42673</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>5324</v>
+      </c>
+      <c r="U65">
+        <v>1940</v>
+      </c>
+      <c r="V65">
+        <v>432</v>
+      </c>
+      <c r="W65">
+        <v>-61</v>
+      </c>
+      <c r="X65">
+        <v>1409</v>
+      </c>
+      <c r="Y65">
+        <v>7</v>
+      </c>
+      <c r="Z65">
+        <v>-289</v>
+      </c>
+      <c r="AA65">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>42764</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>654</v>
+      </c>
+      <c r="D66">
+        <v>2173</v>
+      </c>
+      <c r="E66">
+        <v>826</v>
+      </c>
+      <c r="F66">
+        <v>1303</v>
+      </c>
+      <c r="G66">
+        <v>8536</v>
+      </c>
+      <c r="H66">
+        <v>9841</v>
+      </c>
+      <c r="I66">
+        <v>485</v>
+      </c>
+      <c r="J66">
+        <v>1983</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>1788</v>
+      </c>
+      <c r="O66">
+        <v>4079</v>
+      </c>
+      <c r="P66">
+        <v>2783</v>
+      </c>
+      <c r="Q66">
+        <v>-174</v>
+      </c>
+      <c r="R66">
+        <v>42764</v>
+      </c>
+      <c r="S66">
+        <v>10299</v>
+      </c>
+      <c r="T66">
+        <v>5762</v>
+      </c>
+      <c r="U66">
+        <v>1766</v>
+      </c>
+      <c r="V66">
+        <v>721</v>
+      </c>
+      <c r="W66">
+        <v>-76</v>
+      </c>
+      <c r="X66">
+        <v>-522</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>-323</v>
+      </c>
+      <c r="AA66">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>42855</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <v>507</v>
+      </c>
+      <c r="D67">
+        <v>1937</v>
+      </c>
+      <c r="E67">
+        <v>976</v>
+      </c>
+      <c r="F67">
+        <v>1150</v>
+      </c>
+      <c r="G67">
+        <v>8116</v>
+      </c>
+      <c r="H67">
+        <v>9410</v>
+      </c>
+      <c r="I67">
+        <v>348</v>
+      </c>
+      <c r="J67">
+        <v>1987</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>-605</v>
+      </c>
+      <c r="N67">
+        <v>983</v>
+      </c>
+      <c r="O67">
+        <v>3278</v>
+      </c>
+      <c r="P67">
+        <v>2211</v>
+      </c>
+      <c r="Q67">
+        <v>223</v>
+      </c>
+      <c r="R67">
+        <v>42855</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>6132</v>
+      </c>
+      <c r="U67">
+        <v>1989</v>
+      </c>
+      <c r="V67">
+        <v>282</v>
+      </c>
+      <c r="W67">
+        <v>-82</v>
+      </c>
+      <c r="X67">
+        <v>-813</v>
+      </c>
+      <c r="Y67">
+        <v>4</v>
+      </c>
+      <c r="Z67">
+        <v>808</v>
+      </c>
+      <c r="AA67">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>42946</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <v>584</v>
+      </c>
+      <c r="D68">
+        <v>2230</v>
+      </c>
+      <c r="E68">
+        <v>1213</v>
+      </c>
+      <c r="F68">
+        <v>1302</v>
+      </c>
+      <c r="G68">
+        <v>8070</v>
+      </c>
+      <c r="H68">
+        <v>9402</v>
+      </c>
+      <c r="I68">
+        <v>431</v>
+      </c>
+      <c r="J68">
+        <v>1984</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>1032</v>
+      </c>
+      <c r="O68">
+        <v>3429</v>
+      </c>
+      <c r="P68">
+        <v>2076</v>
+      </c>
+      <c r="Q68">
+        <v>-1</v>
+      </c>
+      <c r="R68">
+        <v>42946</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>5973</v>
+      </c>
+      <c r="U68">
+        <v>1988</v>
+      </c>
+      <c r="V68">
+        <v>705</v>
+      </c>
+      <c r="W68">
+        <v>-84</v>
+      </c>
+      <c r="X68">
+        <v>-968</v>
+      </c>
+      <c r="Y68">
+        <v>3</v>
+      </c>
+      <c r="Z68">
+        <v>316</v>
+      </c>
+      <c r="AA68">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>43037</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69">
+        <v>837</v>
+      </c>
+      <c r="D69">
+        <v>2636</v>
+      </c>
+      <c r="E69">
+        <v>1167</v>
+      </c>
+      <c r="F69">
+        <v>1569</v>
+      </c>
+      <c r="G69">
+        <v>8479</v>
+      </c>
+      <c r="H69">
+        <v>9830</v>
+      </c>
+      <c r="I69">
+        <v>511</v>
+      </c>
+      <c r="J69">
+        <v>1985</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>1027</v>
+      </c>
+      <c r="O69">
+        <v>3478</v>
+      </c>
+      <c r="P69">
+        <v>2014</v>
+      </c>
+      <c r="Q69">
+        <v>814</v>
+      </c>
+      <c r="R69">
+        <v>43037</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>6352</v>
+      </c>
+      <c r="U69">
+        <v>2802</v>
+      </c>
+      <c r="V69">
+        <v>1157</v>
+      </c>
+      <c r="W69">
+        <v>-84</v>
+      </c>
+      <c r="X69">
+        <v>-629</v>
+      </c>
+      <c r="Y69">
+        <v>1</v>
+      </c>
+      <c r="Z69">
+        <v>355</v>
+      </c>
+      <c r="AA69">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>43128</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70">
+        <v>1119</v>
+      </c>
+      <c r="D70">
+        <v>2911</v>
+      </c>
+      <c r="E70">
+        <v>1265</v>
+      </c>
+      <c r="F70">
+        <v>1801</v>
+      </c>
+      <c r="G70">
+        <v>9255</v>
+      </c>
+      <c r="H70">
+        <v>11241</v>
+      </c>
+      <c r="I70">
+        <v>596</v>
+      </c>
+      <c r="J70">
+        <v>1985</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>1153</v>
+      </c>
+      <c r="O70">
+        <v>3770</v>
+      </c>
+      <c r="P70">
+        <v>2000</v>
+      </c>
+      <c r="Q70">
+        <v>1200</v>
+      </c>
+      <c r="R70">
+        <v>43128</v>
+      </c>
+      <c r="S70">
+        <v>11528</v>
+      </c>
+      <c r="T70">
+        <v>7471</v>
+      </c>
+      <c r="U70">
+        <v>4002</v>
+      </c>
+      <c r="V70">
+        <v>1358</v>
+      </c>
+      <c r="W70">
+        <v>-91</v>
+      </c>
+      <c r="X70">
+        <v>-134</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>390</v>
+      </c>
+      <c r="AA70">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>43219</v>
+      </c>
+      <c r="B71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71">
+        <v>1244</v>
+      </c>
+      <c r="D71">
+        <v>3207</v>
+      </c>
+      <c r="E71">
+        <v>1220</v>
+      </c>
+      <c r="F71">
+        <v>2068</v>
+      </c>
+      <c r="G71">
+        <v>9448</v>
+      </c>
+      <c r="H71">
+        <v>11460</v>
+      </c>
+      <c r="I71">
+        <v>623</v>
+      </c>
+      <c r="J71">
+        <v>1986</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>-2</v>
+      </c>
+      <c r="N71">
+        <v>1106</v>
+      </c>
+      <c r="O71">
+        <v>3743</v>
+      </c>
+      <c r="P71">
+        <v>2000</v>
+      </c>
+      <c r="Q71">
+        <v>-3237</v>
+      </c>
+      <c r="R71">
+        <v>43219</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>7717</v>
+      </c>
+      <c r="U71">
+        <v>765</v>
+      </c>
+      <c r="V71">
+        <v>1445</v>
+      </c>
+      <c r="W71">
+        <v>-91</v>
+      </c>
+      <c r="X71">
+        <v>-1131</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>-3433</v>
+      </c>
+      <c r="AA71">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>43310</v>
+      </c>
+      <c r="B72" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72">
+        <v>1101</v>
+      </c>
+      <c r="D72">
+        <v>3123</v>
+      </c>
+      <c r="E72">
+        <v>1662</v>
+      </c>
+      <c r="F72">
+        <v>1975</v>
+      </c>
+      <c r="G72">
+        <v>10831</v>
+      </c>
+      <c r="H72">
+        <v>12882</v>
+      </c>
+      <c r="I72">
+        <v>800</v>
+      </c>
+      <c r="J72">
+        <v>1987</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>1462</v>
+      </c>
+      <c r="O72">
+        <v>4087</v>
+      </c>
+      <c r="P72">
+        <v>2001</v>
+      </c>
+      <c r="Q72">
+        <v>-47</v>
+      </c>
+      <c r="R72">
+        <v>43310</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>8795</v>
+      </c>
+      <c r="U72">
+        <v>718</v>
+      </c>
+      <c r="V72">
+        <v>913</v>
+      </c>
+      <c r="W72">
+        <v>-91</v>
+      </c>
+      <c r="X72">
+        <v>-155</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>-676</v>
+      </c>
+      <c r="AA72">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>43401</v>
+      </c>
+      <c r="B73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73">
+        <v>1230</v>
+      </c>
+      <c r="D73">
+        <v>3181</v>
+      </c>
+      <c r="E73">
+        <v>2219</v>
+      </c>
+      <c r="F73">
+        <v>1921</v>
+      </c>
+      <c r="G73">
+        <v>11386</v>
+      </c>
+      <c r="H73">
+        <v>13657</v>
+      </c>
+      <c r="I73">
+        <v>902</v>
+      </c>
+      <c r="J73">
+        <v>1987</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>1608</v>
+      </c>
+      <c r="O73">
+        <v>4182</v>
+      </c>
+      <c r="P73">
+        <v>1990</v>
+      </c>
+      <c r="Q73">
+        <v>3</v>
+      </c>
+      <c r="R73">
+        <v>43401</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <v>9475</v>
+      </c>
+      <c r="U73">
+        <v>721</v>
+      </c>
+      <c r="V73">
+        <v>487</v>
+      </c>
+      <c r="W73">
+        <v>-91</v>
+      </c>
+      <c r="X73">
+        <v>-703</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>369</v>
+      </c>
+      <c r="AA73">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>43492</v>
+      </c>
+      <c r="B74" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74">
+        <v>566</v>
+      </c>
+      <c r="D74">
+        <v>2205</v>
+      </c>
+      <c r="E74">
+        <v>1424</v>
+      </c>
+      <c r="F74">
+        <v>1207</v>
+      </c>
+      <c r="G74">
+        <v>10557</v>
+      </c>
+      <c r="H74">
+        <v>13292</v>
+      </c>
+      <c r="I74">
+        <v>511</v>
+      </c>
+      <c r="J74">
+        <v>1988</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>1329</v>
+      </c>
+      <c r="O74">
+        <v>3950</v>
+      </c>
+      <c r="P74">
+        <v>1988</v>
+      </c>
+      <c r="Q74">
+        <v>61</v>
+      </c>
+      <c r="R74">
+        <v>43492</v>
+      </c>
+      <c r="S74">
+        <v>13277</v>
+      </c>
+      <c r="T74">
+        <v>9342</v>
+      </c>
+      <c r="U74">
+        <v>782</v>
+      </c>
+      <c r="V74">
+        <v>898</v>
+      </c>
+      <c r="W74">
+        <v>-98</v>
+      </c>
+      <c r="X74">
+        <v>-877</v>
+      </c>
+      <c r="Y74">
+        <v>0</v>
+      </c>
+      <c r="Z74">
+        <v>243</v>
+      </c>
+      <c r="AA74">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>43583</v>
+      </c>
+      <c r="B75" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75">
+        <v>394</v>
+      </c>
+      <c r="D75">
+        <v>2220</v>
+      </c>
+      <c r="E75">
+        <v>1242</v>
+      </c>
+      <c r="F75">
+        <v>1296</v>
+      </c>
+      <c r="G75">
+        <v>10629</v>
+      </c>
+      <c r="H75">
+        <v>14021</v>
+      </c>
+      <c r="I75">
+        <v>368</v>
+      </c>
+      <c r="J75">
+        <v>1988</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>1183</v>
+      </c>
+      <c r="O75">
+        <v>4317</v>
+      </c>
+      <c r="P75">
+        <v>2554</v>
+      </c>
+      <c r="Q75">
+        <v>1990</v>
+      </c>
+      <c r="R75">
+        <v>43583</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>9704</v>
+      </c>
+      <c r="U75">
+        <v>2772</v>
+      </c>
+      <c r="V75">
+        <v>720</v>
+      </c>
+      <c r="W75">
+        <v>-97</v>
+      </c>
+      <c r="X75">
+        <v>-225</v>
+      </c>
+      <c r="Y75">
+        <v>486</v>
+      </c>
+      <c r="Z75">
+        <v>1623</v>
+      </c>
+      <c r="AA75">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>43674</v>
+      </c>
+      <c r="B76" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76">
+        <v>553</v>
+      </c>
+      <c r="D76">
+        <v>2579</v>
+      </c>
+      <c r="E76">
+        <v>1561</v>
+      </c>
+      <c r="F76">
+        <v>1541</v>
+      </c>
+      <c r="G76">
+        <v>11391</v>
+      </c>
+      <c r="H76">
+        <v>14775</v>
+      </c>
+      <c r="I76">
+        <v>437</v>
+      </c>
+      <c r="J76">
+        <v>1989</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>1317</v>
+      </c>
+      <c r="O76">
+        <v>4439</v>
+      </c>
+      <c r="P76">
+        <v>2556</v>
+      </c>
+      <c r="Q76">
+        <v>4333</v>
+      </c>
+      <c r="R76">
+        <v>43674</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>10336</v>
+      </c>
+      <c r="U76">
+        <v>7105</v>
+      </c>
+      <c r="V76">
+        <v>936</v>
+      </c>
+      <c r="W76">
+        <v>-98</v>
+      </c>
+      <c r="X76">
+        <v>-148</v>
+      </c>
+      <c r="Y76">
+        <v>483</v>
+      </c>
+      <c r="Z76">
+        <v>3658</v>
+      </c>
+      <c r="AA76">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>43765</v>
+      </c>
+      <c r="B77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77">
+        <v>898</v>
+      </c>
+      <c r="D77">
+        <v>3014</v>
+      </c>
+      <c r="E77">
+        <v>1455</v>
+      </c>
+      <c r="F77">
+        <v>1916</v>
+      </c>
+      <c r="G77">
+        <v>12420</v>
+      </c>
+      <c r="H77">
+        <v>15810</v>
+      </c>
+      <c r="I77">
+        <v>591</v>
+      </c>
+      <c r="J77">
+        <v>1990</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>1475</v>
+      </c>
+      <c r="O77">
+        <v>4596</v>
+      </c>
+      <c r="P77">
+        <v>2548</v>
+      </c>
+      <c r="Q77">
+        <v>2660</v>
+      </c>
+      <c r="R77">
+        <v>43765</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>11214</v>
+      </c>
+      <c r="U77">
+        <v>9765</v>
+      </c>
+      <c r="V77">
+        <v>1640</v>
+      </c>
+      <c r="W77">
+        <v>-97</v>
+      </c>
+      <c r="X77">
+        <v>-236</v>
+      </c>
+      <c r="Y77">
+        <v>469</v>
+      </c>
+      <c r="Z77">
+        <v>1359</v>
+      </c>
+      <c r="AA77">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>43856</v>
+      </c>
+      <c r="B78" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78">
+        <v>951</v>
+      </c>
+      <c r="D78">
+        <v>3105</v>
+      </c>
+      <c r="E78">
+        <v>1657</v>
+      </c>
+      <c r="F78">
+        <v>2015</v>
+      </c>
+      <c r="G78">
+        <v>13690</v>
+      </c>
+      <c r="H78">
+        <v>17315</v>
+      </c>
+      <c r="I78">
+        <v>687</v>
+      </c>
+      <c r="J78">
+        <v>1991</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>1784</v>
+      </c>
+      <c r="O78">
+        <v>5111</v>
+      </c>
+      <c r="P78">
+        <v>2643</v>
+      </c>
+      <c r="Q78">
+        <v>1131</v>
+      </c>
+      <c r="R78">
+        <v>43856</v>
+      </c>
+      <c r="S78">
+        <v>13775</v>
+      </c>
+      <c r="T78">
+        <v>12204</v>
+      </c>
+      <c r="U78">
+        <v>10896</v>
+      </c>
+      <c r="V78">
+        <v>1465</v>
+      </c>
+      <c r="W78">
+        <v>-98</v>
+      </c>
+      <c r="X78">
+        <v>-183</v>
+      </c>
+      <c r="Y78">
+        <v>561</v>
+      </c>
+      <c r="Z78">
+        <v>-2</v>
+      </c>
+      <c r="AA78">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>43947</v>
+      </c>
+      <c r="B79" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79">
+        <v>917</v>
+      </c>
+      <c r="D79">
+        <v>3080</v>
+      </c>
+      <c r="E79">
+        <v>1907</v>
+      </c>
+      <c r="F79">
+        <v>2004</v>
+      </c>
+      <c r="G79">
+        <v>19584</v>
+      </c>
+      <c r="H79">
+        <v>23254</v>
+      </c>
+      <c r="I79">
+        <v>761</v>
+      </c>
+      <c r="J79">
+        <v>6959</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>1903</v>
+      </c>
+      <c r="O79">
+        <v>10155</v>
+      </c>
+      <c r="P79">
+        <v>7578</v>
+      </c>
+      <c r="Q79">
+        <v>4598</v>
+      </c>
+      <c r="R79">
+        <v>43947</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>13099</v>
+      </c>
+      <c r="U79">
+        <v>15494</v>
+      </c>
+      <c r="V79">
+        <v>909</v>
+      </c>
+      <c r="W79">
+        <v>-98</v>
+      </c>
+      <c r="X79">
+        <v>4744</v>
+      </c>
+      <c r="Y79">
+        <v>519</v>
+      </c>
+      <c r="Z79">
+        <v>-866</v>
+      </c>
+      <c r="AA79">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>44038</v>
+      </c>
+      <c r="B80" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80">
+        <v>622</v>
+      </c>
+      <c r="D80">
+        <v>3866</v>
+      </c>
+      <c r="E80">
+        <v>2084</v>
+      </c>
+      <c r="F80">
+        <v>2436</v>
+      </c>
+      <c r="G80">
+        <v>14681</v>
+      </c>
+      <c r="H80">
+        <v>25180</v>
+      </c>
+      <c r="I80">
+        <v>893</v>
+      </c>
+      <c r="J80">
+        <v>6960</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>2410</v>
+      </c>
+      <c r="O80">
+        <v>11266</v>
+      </c>
+      <c r="P80">
+        <v>7695</v>
+      </c>
+      <c r="Q80">
+        <v>-12220</v>
+      </c>
+      <c r="R80">
+        <v>44038</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>13914</v>
+      </c>
+      <c r="U80">
+        <v>3274</v>
+      </c>
+      <c r="V80">
+        <v>1567</v>
+      </c>
+      <c r="W80">
+        <v>-99</v>
+      </c>
+      <c r="X80">
+        <v>-297</v>
+      </c>
+      <c r="Y80">
+        <v>611</v>
+      </c>
+      <c r="Z80">
+        <v>-6136</v>
+      </c>
+      <c r="AA80">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>44129</v>
+      </c>
+      <c r="B81" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81">
+        <v>1336</v>
+      </c>
+      <c r="D81">
+        <v>4726</v>
+      </c>
+      <c r="E81">
+        <v>2546</v>
+      </c>
+      <c r="F81">
+        <v>2960</v>
+      </c>
+      <c r="G81">
+        <v>14393</v>
+      </c>
+      <c r="H81">
+        <v>26881</v>
+      </c>
+      <c r="I81">
+        <v>1097</v>
+      </c>
+      <c r="J81">
+        <v>5963</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>3669</v>
+      </c>
+      <c r="O81">
+        <v>11547</v>
+      </c>
+      <c r="P81">
+        <v>7681</v>
+      </c>
+      <c r="Q81">
+        <v>-1023</v>
+      </c>
+      <c r="R81">
+        <v>44129</v>
+      </c>
+      <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="T81">
+        <v>15334</v>
+      </c>
+      <c r="U81">
+        <v>2251</v>
+      </c>
+      <c r="V81">
+        <v>1279</v>
+      </c>
+      <c r="W81">
+        <v>-99</v>
+      </c>
+      <c r="X81">
+        <v>-301</v>
+      </c>
+      <c r="Y81">
+        <v>604</v>
+      </c>
+      <c r="Z81">
+        <v>-175</v>
+      </c>
+      <c r="AA81">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A82" s="1">
+        <v>44227</v>
+      </c>
+      <c r="B82" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82">
         <v>1457</v>
       </c>
-      <c r="D42">
+      <c r="D82">
         <v>5003</v>
       </c>
-      <c r="E42">
+      <c r="E82">
         <v>2429</v>
       </c>
-      <c r="F42">
+      <c r="F82">
         <v>3156</v>
       </c>
-      <c r="G42">
+      <c r="G82">
         <v>16055</v>
       </c>
-      <c r="H42">
+      <c r="H82">
         <v>28791</v>
       </c>
-      <c r="I42">
+      <c r="I82">
         <v>1201</v>
       </c>
-      <c r="J42">
+      <c r="J82">
         <v>5964</v>
       </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
         <v>3925</v>
       </c>
-      <c r="O42">
+      <c r="O82">
         <v>11898</v>
       </c>
-      <c r="P42">
+      <c r="P82">
         <v>7718</v>
       </c>
-      <c r="Q42">
+      <c r="Q82">
         <v>-1404</v>
       </c>
-      <c r="R42">
+      <c r="R82">
         <v>44227</v>
       </c>
-      <c r="S42">
+      <c r="S82">
         <v>18975</v>
       </c>
-      <c r="T42">
+      <c r="T82">
         <v>16893</v>
       </c>
-      <c r="U42">
+      <c r="U82">
         <v>847</v>
       </c>
-      <c r="V42">
+      <c r="V82">
         <v>2067</v>
       </c>
-      <c r="W42">
+      <c r="W82">
         <v>-99</v>
       </c>
-      <c r="X42">
+      <c r="X82">
         <v>-342</v>
       </c>
-      <c r="Y42">
+      <c r="Y82">
         <v>634</v>
       </c>
-      <c r="Z42">
+      <c r="Z82">
         <v>-2846</v>
       </c>
-      <c r="AA42">
+      <c r="AA82">
         <v>1457</v>
       </c>
     </row>
